--- a/sriramModel-nelson-melancholic-patientID_60-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_60-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.010013152750674</v>
+        <v>2.007759657197584</v>
       </c>
       <c r="C2">
-        <v>2.003467196836867</v>
+        <v>2.021825140659329</v>
       </c>
       <c r="D2">
-        <v>2.022855352211261</v>
+        <v>2.021312946824656</v>
       </c>
       <c r="E2">
-        <v>2.003813408819559</v>
+        <v>2.015335131887703</v>
       </c>
       <c r="F2">
-        <v>2.020387961639548</v>
+        <v>2.008515178512496</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.020375723734331</v>
+        <v>2.015791212015764</v>
       </c>
       <c r="C3">
-        <v>2.00704712055478</v>
+        <v>2.044363318847498</v>
       </c>
       <c r="D3">
-        <v>2.046586032011696</v>
+        <v>2.043356345578109</v>
       </c>
       <c r="E3">
-        <v>2.007720141409056</v>
+        <v>2.031185042759584</v>
       </c>
       <c r="F3">
-        <v>2.041489716138999</v>
+        <v>2.017334524833575</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.031072030665978</v>
+        <v>2.02408572696262</v>
       </c>
       <c r="C4">
-        <v>2.010737550417961</v>
+        <v>2.067572160725901</v>
       </c>
       <c r="D4">
-        <v>2.071138419183935</v>
+        <v>2.066086128943029</v>
       </c>
       <c r="E4">
-        <v>2.011721448833717</v>
+        <v>2.047536340224706</v>
       </c>
       <c r="F4">
-        <v>2.063264563692225</v>
+        <v>2.026442097659645</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.042087823549301</v>
+        <v>2.03263528020709</v>
       </c>
       <c r="C5">
-        <v>2.014536631767682</v>
+        <v>2.091412565643667</v>
       </c>
       <c r="D5">
-        <v>2.096462640765476</v>
+        <v>2.08946121557367</v>
       </c>
       <c r="E5">
-        <v>2.01581880225316</v>
+        <v>2.064377220919519</v>
       </c>
       <c r="F5">
-        <v>2.085674595620576</v>
+        <v>2.035823182487901</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.053410237766658</v>
+        <v>2.041432982324835</v>
       </c>
       <c r="C6">
-        <v>2.018442888083344</v>
+        <v>2.115848567233569</v>
       </c>
       <c r="D6">
-        <v>2.12251255206017</v>
+        <v>2.113443495110119</v>
       </c>
       <c r="E6">
-        <v>2.020013897698361</v>
+        <v>2.081697408403786</v>
       </c>
       <c r="F6">
-        <v>2.10868467968031</v>
+        <v>2.045464290768495</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.065027749538391</v>
+        <v>2.050472918164311</v>
       </c>
       <c r="C7">
-        <v>2.02245520455291</v>
+        <v>2.140847211103205</v>
       </c>
       <c r="D7">
-        <v>2.149245436315469</v>
+        <v>2.137997593825502</v>
       </c>
       <c r="E7">
-        <v>2.024308663554725</v>
+        <v>2.099488123361315</v>
       </c>
       <c r="F7">
-        <v>2.132262240135997</v>
+        <v>2.05535307664441</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.076930140847328</v>
+        <v>2.059750126521362</v>
       </c>
       <c r="C8">
-        <v>2.026572824716229</v>
+        <v>2.16637842607761</v>
       </c>
       <c r="D8">
-        <v>2.17662185019363</v>
+        <v>2.163090750509527</v>
       </c>
       <c r="E8">
-        <v>2.028705267774424</v>
+        <v>2.117742054127256</v>
       </c>
       <c r="F8">
-        <v>2.156377141794305</v>
+        <v>2.06547829859143</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.089108463709562</v>
+        <v>2.06926058545175</v>
       </c>
       <c r="C9">
-        <v>2.030795350130598</v>
+        <v>2.192414926011462</v>
       </c>
       <c r="D9">
-        <v>2.204605490123235</v>
+        <v>2.188692709287343</v>
       </c>
       <c r="E9">
-        <v>2.033206124990488</v>
+        <v>2.136453342348576</v>
       </c>
       <c r="F9">
-        <v>2.18100159062838</v>
+        <v>2.075829786751979</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.101555008998921</v>
+        <v>2.079001194453719</v>
       </c>
       <c r="C10">
-        <v>2.035122739392574</v>
+        <v>2.218932109122086</v>
       </c>
       <c r="D10">
-        <v>2.233163038538093</v>
+        <v>2.214775599288452</v>
       </c>
       <c r="E10">
-        <v>2.037813908930401</v>
+        <v>2.155617548841875</v>
       </c>
       <c r="F10">
-        <v>2.206110022071728</v>
+        <v>2.086398405697032</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.114263279343205</v>
+        <v>2.088969759640261</v>
       </c>
       <c r="C11">
-        <v>2.039555308671826</v>
+        <v>2.24590795827508</v>
       </c>
       <c r="D11">
-        <v>2.26226401419279</v>
+        <v>2.2413138120886</v>
       </c>
       <c r="E11">
-        <v>2.042531564376011</v>
+        <v>2.175231630590837</v>
       </c>
       <c r="F11">
-        <v>2.23167898855232</v>
+        <v>2.097176019312155</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.127227967116433</v>
+        <v>2.09916498470257</v>
       </c>
       <c r="C12">
-        <v>2.044093734202012</v>
+        <v>2.273322949495652</v>
       </c>
       <c r="D12">
-        <v>2.291880650512293</v>
+        <v>2.268283897384846</v>
       </c>
       <c r="E12">
-        <v>2.047362318456907</v>
+        <v>2.195293928773459</v>
       </c>
       <c r="F12">
-        <v>2.257687063435598</v>
+        <v>2.108155462439874</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.140444933510361</v>
+        <v>2.109586464825628</v>
       </c>
       <c r="C13">
-        <v>2.04873905653168</v>
+        <v>2.301159969673023</v>
       </c>
       <c r="D13">
-        <v>2.321987775055511</v>
+        <v>2.295664466112755</v>
       </c>
       <c r="E13">
-        <v>2.052309695287796</v>
+        <v>2.215804161976647</v>
       </c>
       <c r="F13">
-        <v>2.284114754422288</v>
+        <v>2.119330516980257</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.153911194388911</v>
+        <v>2.120234684581838</v>
       </c>
       <c r="C14">
-        <v>2.053492687415598</v>
+        <v>2.329404243499639</v>
       </c>
       <c r="D14">
-        <v>2.352562680298973</v>
+        <v>2.323436090652772</v>
       </c>
       <c r="E14">
-        <v>2.057377533118024</v>
+        <v>2.236763415972052</v>
       </c>
       <c r="F14">
-        <v>2.310944410106865</v>
+        <v>2.130695888268058</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.167624911183252</v>
+        <v>2.13111101899685</v>
       </c>
       <c r="C15">
-        <v>2.058356416352654</v>
+        <v>2.358043267392438</v>
       </c>
       <c r="D15">
-        <v>2.383585066889339</v>
+        <v>2.351581228061268</v>
       </c>
       <c r="E15">
-        <v>2.062570003341044</v>
+        <v>2.258174138759184</v>
       </c>
       <c r="F15">
-        <v>2.338160155387342</v>
+        <v>2.142247189711239</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.181585387037186</v>
+        <v>2.142217738923316</v>
       </c>
       <c r="C16">
-        <v>2.063332420824414</v>
+        <v>2.387066749840841</v>
       </c>
       <c r="D16">
-        <v>2.415036903687901</v>
+        <v>2.380084149049141</v>
       </c>
       <c r="E16">
-        <v>2.067891631081053</v>
+        <v>2.280040137860947</v>
       </c>
       <c r="F16">
-        <v>2.365747821602616</v>
+        <v>2.153980930228112</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.195793065997973</v>
+        <v>2.153558021787361</v>
       </c>
       <c r="C17">
-        <v>2.068423282127391</v>
+        <v>2.416466559297815</v>
       </c>
       <c r="D17">
-        <v>2.446902342552784</v>
+        <v>2.408930827969283</v>
       </c>
       <c r="E17">
-        <v>2.073347319169802</v>
+        <v>2.302366583962423</v>
       </c>
       <c r="F17">
-        <v>2.393694850912671</v>
+        <v>2.165894497165818</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.210249538313663</v>
+        <v>2.165135967137903</v>
       </c>
       <c r="C18">
-        <v>2.073632000759353</v>
+        <v>2.44623668061074</v>
       </c>
       <c r="D18">
-        <v>2.479167655005332</v>
+        <v>2.438108885165387</v>
       </c>
       <c r="E18">
-        <v>2.078942375545169</v>
+        <v>2.325160020167404</v>
       </c>
       <c r="F18">
-        <v>2.421990247571202</v>
+        <v>2.177986153539266</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.224957554718392</v>
+        <v>2.176956617860588</v>
       </c>
       <c r="C19">
-        <v>2.078962013203143</v>
+        <v>2.476373180114537</v>
       </c>
       <c r="D19">
-        <v>2.511821177612015</v>
+        <v>2.467607546527304</v>
       </c>
       <c r="E19">
-        <v>2.084682547875585</v>
+        <v>2.348428369378553</v>
       </c>
       <c r="F19">
-        <v>2.450624541248577</v>
+        <v>2.190255041032876</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.239921038914288</v>
+        <v>2.189025986198215</v>
       </c>
       <c r="C20">
-        <v>2.084417214346465</v>
+        <v>2.506874179235499</v>
       </c>
       <c r="D20">
-        <v>2.544853248428463</v>
+        <v>2.497417590127347</v>
       </c>
       <c r="E20">
-        <v>2.090574028999002</v>
+        <v>2.372180953430629</v>
       </c>
       <c r="F20">
-        <v>2.479589739939334</v>
+        <v>2.202701184090664</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.255145121673655</v>
+        <v>2.201351085978824</v>
       </c>
       <c r="C21">
-        <v>2.090001984495755</v>
+        <v>2.537739836628058</v>
       </c>
       <c r="D21">
-        <v>2.578256161281998</v>
+        <v>2.527531293792929</v>
       </c>
       <c r="E21">
-        <v>2.096623535313355</v>
+        <v>2.396428510127384</v>
       </c>
       <c r="F21">
-        <v>2.508879285708437</v>
+        <v>2.215325498393779</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.270636172914548</v>
+        <v>2.213939972200937</v>
       </c>
       <c r="C22">
-        <v>2.095721221481967</v>
+        <v>2.568972339412692</v>
       </c>
       <c r="D22">
-        <v>2.612024127057812</v>
+        <v>2.557942405202567</v>
       </c>
       <c r="E22">
-        <v>2.102838304991119</v>
+        <v>2.421183214771516</v>
       </c>
       <c r="F22">
-        <v>2.538488032330079</v>
+        <v>2.228129809585333</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.28640184377747</v>
+        <v>2.226801787759189</v>
       </c>
       <c r="C23">
-        <v>2.101580372506801</v>
+        <v>2.600575904027611</v>
       </c>
       <c r="D23">
-        <v>2.646153254838355</v>
+        <v>2.588646110184509</v>
       </c>
       <c r="E23">
-        <v>2.109226187328489</v>
+        <v>2.446458702388588</v>
       </c>
       <c r="F23">
-        <v>2.568412217690025</v>
+        <v>2.241116872438597</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.302451113419312</v>
+        <v>2.239946818564432</v>
       </c>
       <c r="C24">
-        <v>2.107585476827154</v>
+        <v>2.6325567869536</v>
       </c>
       <c r="D24">
-        <v>2.680641548691066</v>
+        <v>2.619639028717191</v>
       </c>
       <c r="E24">
-        <v>2.115795671536511</v>
+        <v>2.472270099465939</v>
       </c>
       <c r="F24">
-        <v>2.598649465111584</v>
+        <v>2.254290405315613</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.318794356053673</v>
+        <v>2.253386557700687</v>
       </c>
       <c r="C25">
-        <v>2.113743213542977</v>
+        <v>2.664923305768767</v>
       </c>
       <c r="D25">
-        <v>2.71548891243051</v>
+        <v>2.650919215593632</v>
       </c>
       <c r="E25">
-        <v>2.122555946366683</v>
+        <v>2.498634053212271</v>
       </c>
       <c r="F25">
-        <v>2.629198794919279</v>
+        <v>2.267655130333498</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.335443413031435</v>
+        <v>2.267133779590878</v>
       </c>
       <c r="C26">
-        <v>2.12006094579823</v>
+        <v>2.697685870945589</v>
       </c>
       <c r="D26">
-        <v>2.750697166424933</v>
+        <v>2.682486154282406</v>
       </c>
       <c r="E26">
-        <v>2.129516975262565</v>
+        <v>2.525568762694436</v>
       </c>
       <c r="F26">
-        <v>2.660060613546363</v>
+        <v>2.281216811193432</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.352411680850551</v>
+        <v>2.281202625457282</v>
       </c>
       <c r="C27">
-        <v>2.126546802669647</v>
+        <v>2.730857028913689</v>
       </c>
       <c r="D27">
-        <v>2.786270096340684</v>
+        <v>2.714340824943013</v>
       </c>
       <c r="E27">
-        <v>2.136689555504075</v>
+        <v>2.553094014551677</v>
       </c>
       <c r="F27">
-        <v>2.691236794524668</v>
+        <v>2.294982335250857</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.369714202228998</v>
+        <v>2.295608700529597</v>
       </c>
       <c r="C28">
-        <v>2.133209737584969</v>
+        <v>2.764451517933847</v>
       </c>
       <c r="D28">
-        <v>2.822213504709562</v>
+        <v>2.74648573614267</v>
       </c>
       <c r="E28">
-        <v>2.144085409575688</v>
+        <v>2.581231217594751</v>
       </c>
       <c r="F28">
-        <v>2.722730712281988</v>
+        <v>2.308959779042415</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.387367794636854</v>
+        <v>2.310369185563936</v>
       </c>
       <c r="C29">
-        <v>2.140059612401972</v>
+        <v>2.798486336499133</v>
       </c>
       <c r="D29">
-        <v>2.858535287818958</v>
+        <v>2.778924979946212</v>
       </c>
       <c r="E29">
-        <v>2.151717293178485</v>
+        <v>2.610003435732806</v>
       </c>
       <c r="F29">
-        <v>2.754547300373173</v>
+        <v>2.323158484419522</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.405391179112901</v>
+        <v>2.32550296414194</v>
       </c>
       <c r="C30">
-        <v>2.147107306814487</v>
+        <v>2.832980822978675</v>
       </c>
       <c r="D30">
-        <v>2.895245529524251</v>
+        <v>2.811664348233887</v>
       </c>
       <c r="E30">
-        <v>2.159599065307076</v>
+        <v>2.639435420917391</v>
       </c>
       <c r="F30">
-        <v>2.786693174448196</v>
+        <v>2.337589181995201</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.423805133988561</v>
+        <v>2.341030766514836</v>
       </c>
       <c r="C31">
-        <v>2.154364815212064</v>
+        <v>2.867956734229825</v>
       </c>
       <c r="D31">
-        <v>2.932356639548996</v>
+        <v>2.844711454668233</v>
       </c>
       <c r="E31">
-        <v>2.167745857445695</v>
+        <v>2.669553642521185</v>
       </c>
       <c r="F31">
-        <v>2.819176759539733</v>
+        <v>2.352264114652075</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.442632661615036</v>
+        <v>2.356975332799381</v>
       </c>
       <c r="C32">
-        <v>2.161845376681857</v>
+        <v>2.903438373948222</v>
       </c>
       <c r="D32">
-        <v>2.969883502550742</v>
+        <v>2.878075863306415</v>
       </c>
       <c r="E32">
-        <v>2.176174178957451</v>
+        <v>2.700386309584769</v>
       </c>
       <c r="F32">
-        <v>2.852008418156735</v>
+        <v>2.367197166252269</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.461899202781349</v>
+        <v>2.373361597486975</v>
       </c>
       <c r="C33">
-        <v>2.169563646990391</v>
+        <v>2.939452708695348</v>
       </c>
       <c r="D33">
-        <v>3.00784365724019</v>
+        <v>2.911769312389056</v>
       </c>
       <c r="E33">
-        <v>2.184902072455564</v>
+        <v>2.73196338726033</v>
       </c>
       <c r="F33">
-        <v>2.885200688348221</v>
+        <v>2.382404060875503</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.481632859574736</v>
+        <v>2.39021689766076</v>
       </c>
       <c r="C34">
-        <v>2.177535846314811</v>
+        <v>2.976029486085574</v>
       </c>
       <c r="D34">
-        <v>3.046257512001966</v>
+        <v>2.945805965604566</v>
       </c>
       <c r="E34">
-        <v>2.193949329996124</v>
+        <v>2.764316606619648</v>
       </c>
       <c r="F34">
-        <v>2.918768539945314</v>
+        <v>2.397902577496304</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.501864648277023</v>
+        <v>2.407571207482176</v>
       </c>
       <c r="C35">
-        <v>2.185779976848615</v>
+        <v>3.013201415399905</v>
       </c>
       <c r="D35">
-        <v>3.085148614317744</v>
+        <v>2.980202676046385</v>
       </c>
       <c r="E35">
-        <v>2.203337630202413</v>
+        <v>2.797479451500921</v>
       </c>
       <c r="F35">
-        <v>2.952729631766297</v>
+        <v>2.413712772470129</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.522628787889246</v>
+        <v>2.425457401628512</v>
       </c>
       <c r="C36">
-        <v>2.19431609139547</v>
+        <v>3.051004313319408</v>
       </c>
       <c r="D36">
-        <v>3.124543945169317</v>
+        <v>3.014979360834932</v>
       </c>
       <c r="E36">
-        <v>2.213090829024277</v>
+        <v>2.831487131941501</v>
       </c>
       <c r="F36">
-        <v>2.987104723653722</v>
+        <v>2.429857291162922</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.543963042977181</v>
+        <v>2.44391155077851</v>
       </c>
       <c r="C37">
-        <v>2.203166526939107</v>
+        <v>3.089477268877178</v>
       </c>
       <c r="D37">
-        <v>3.164474250702017</v>
+        <v>3.050159475926581</v>
       </c>
       <c r="E37">
-        <v>2.223235225360678</v>
+        <v>2.866376550321428</v>
       </c>
       <c r="F37">
-        <v>3.021918155737637</v>
+        <v>2.446361740726934</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.565909088737208</v>
+        <v>2.462973250523123</v>
       </c>
       <c r="C38">
-        <v>2.212356272432007</v>
+        <v>3.128662845354683</v>
       </c>
       <c r="D38">
-        <v>3.204974439753793</v>
+        <v>3.085770525582673</v>
       </c>
       <c r="E38">
-        <v>2.233799778533978</v>
+        <v>2.902186221077097</v>
       </c>
       <c r="F38">
-        <v>3.057198335034883</v>
+        <v>2.463255084429643</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.58851290857061</v>
+        <v>2.482685986483268</v>
       </c>
       <c r="C39">
-        <v>2.221913403840015</v>
+        <v>3.168607268756476</v>
       </c>
       <c r="D39">
-        <v>3.24608404284134</v>
+        <v>3.121844656995741</v>
       </c>
       <c r="E39">
-        <v>2.244816594817719</v>
+        <v>2.938956164370059</v>
       </c>
       <c r="F39">
-        <v>3.092978398978778</v>
+        <v>2.480570123627817</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.611825260811645</v>
+        <v>2.503097540871188</v>
       </c>
       <c r="C40">
-        <v>2.231869463624093</v>
+        <v>3.209360614644741</v>
       </c>
       <c r="D40">
-        <v>3.287847708165277</v>
+        <v>3.158419548054129</v>
       </c>
       <c r="E40">
-        <v>2.256321197539881</v>
+        <v>2.976727762382113</v>
       </c>
       <c r="F40">
-        <v>3.129297111022855</v>
+        <v>2.498344165514787</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.635902191708874</v>
+        <v>2.524260435210102</v>
       </c>
       <c r="C41">
-        <v>2.242260088794235</v>
+        <v>3.250977016368696</v>
       </c>
       <c r="D41">
-        <v>3.330315734963506</v>
+        <v>3.195539228341191</v>
       </c>
       <c r="E41">
-        <v>2.268353031538195</v>
+        <v>3.015543607972731</v>
       </c>
       <c r="F41">
-        <v>3.166199848946206</v>
+        <v>2.516619650836926</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.660805579423494</v>
+        <v>2.546232412148051</v>
       </c>
       <c r="C42">
-        <v>2.253125674432316</v>
+        <v>3.293514840735772</v>
       </c>
       <c r="D42">
-        <v>3.373544699789068</v>
+        <v>3.233255390918499</v>
       </c>
       <c r="E42">
-        <v>2.280955989594667</v>
+        <v>3.055447230826569</v>
       </c>
       <c r="F42">
-        <v>3.203739776332815</v>
+        <v>2.53544515448839</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.686603698567284</v>
+        <v>2.569076951812573</v>
       </c>
       <c r="C43">
-        <v>2.264512254431187</v>
+        <v>3.337036845105147</v>
       </c>
       <c r="D43">
-        <v>3.41759811488372</v>
+        <v>3.271628729816402</v>
       </c>
       <c r="E43">
-        <v>2.294179037857413</v>
+        <v>3.096482821590417</v>
       </c>
       <c r="F43">
-        <v>3.241979272823973</v>
+        <v>2.55487641534829</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.713371866170971</v>
+        <v>2.59286381076713</v>
       </c>
       <c r="C44">
-        <v>2.276472455374277</v>
+        <v>3.38161032338848</v>
       </c>
       <c r="D44">
-        <v>3.462547099500562</v>
+        <v>3.310730556328096</v>
       </c>
       <c r="E44">
-        <v>2.308076885180508</v>
+        <v>3.138694910151176</v>
       </c>
       <c r="F44">
-        <v>3.280991721539994</v>
+        <v>2.574977572009183</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.741193065772985</v>
+        <v>2.61766957821369</v>
       </c>
       <c r="C45">
-        <v>2.289066645280426</v>
+        <v>3.427307157119539</v>
       </c>
       <c r="D45">
-        <v>3.508471049137125</v>
+        <v>3.350644838513006</v>
       </c>
       <c r="E45">
-        <v>2.322710711180342</v>
+        <v>3.182127940405755</v>
       </c>
       <c r="F45">
-        <v>3.320863663445732</v>
+        <v>2.595822733144697</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.770158542941783</v>
+        <v>2.643578220779929</v>
       </c>
       <c r="C46">
-        <v>2.302364385469651</v>
+        <v>3.474203847148365</v>
       </c>
       <c r="D46">
-        <v>3.555458332171941</v>
+        <v>3.391470690799198</v>
       </c>
       <c r="E46">
-        <v>2.338149035505973</v>
+        <v>3.226825777827536</v>
       </c>
       <c r="F46">
-        <v>3.361697448055023</v>
+        <v>2.617497905788531</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.800368365314913</v>
+        <v>2.670681583681375</v>
       </c>
       <c r="C47">
-        <v>2.316446212422453</v>
+        <v>3.52238135035611</v>
       </c>
       <c r="D47">
-        <v>3.603606820884465</v>
+        <v>3.433325342135265</v>
       </c>
       <c r="E47">
-        <v>2.354468691575947</v>
+        <v>3.27283120951905</v>
       </c>
       <c r="F47">
-        <v>3.403614385751405</v>
+        <v>2.640103325918371</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.831931895144687</v>
+        <v>2.699079797096094</v>
       </c>
       <c r="C48">
-        <v>2.331405774098625</v>
+        <v>3.571924850188064</v>
       </c>
       <c r="D48">
-        <v>3.653024272455986</v>
+        <v>3.476347659812631</v>
       </c>
       <c r="E48">
-        <v>2.371755881604908</v>
+        <v>3.320185267467749</v>
       </c>
       <c r="F48">
-        <v>3.446758545697876</v>
+        <v>2.663756271907505</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.864967940116357</v>
+        <v>2.728881533539011</v>
       </c>
       <c r="C49">
-        <v>2.347352394965945</v>
+        <v>3.622923358419632</v>
       </c>
       <c r="D49">
-        <v>3.70382841194691</v>
+        <v>3.520702314851502</v>
       </c>
       <c r="E49">
-        <v>2.390107299152963</v>
+        <v>3.36892659284373</v>
       </c>
       <c r="F49">
-        <v>3.491301198999968</v>
+        <v>2.68859445718764</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.899604597757591</v>
+        <v>2.760203998291527</v>
       </c>
       <c r="C50">
-        <v>2.364414103561077</v>
+        <v>3.675469073514878</v>
       </c>
       <c r="D50">
-        <v>3.756146571080378</v>
+        <v>3.566584622925488</v>
       </c>
       <c r="E50">
-        <v>2.409631268423188</v>
+        <v>3.419090749390591</v>
       </c>
       <c r="F50">
-        <v>3.537446276362521</v>
+        <v>2.714780043992492</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.935978661544623</v>
+        <v>2.793172617944636</v>
       </c>
       <c r="C51">
-        <v>2.382741361010408</v>
+        <v>3.729656462308369</v>
       </c>
       <c r="D51">
-        <v>3.810114678430219</v>
+        <v>3.614225984403486</v>
       </c>
       <c r="E51">
-        <v>2.430448861639918</v>
+        <v>3.47070948098723</v>
       </c>
       <c r="F51">
-        <v>3.585436386355921</v>
+        <v>2.742504394158669</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.974234310592423</v>
+        <v>2.827920021846961</v>
       </c>
       <c r="C52">
-        <v>2.402511362759412</v>
+        <v>3.785581036625827</v>
       </c>
       <c r="D52">
-        <v>3.865875443455375</v>
+        <v>3.663899652015524</v>
       </c>
       <c r="E52">
-        <v>2.452694855512096</v>
+        <v>3.523809946399217</v>
       </c>
       <c r="F52">
-        <v>3.635559030716895</v>
+        <v>2.771993608569952</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.014520845486385</v>
+        <v>2.864584441544742</v>
       </c>
       <c r="C53">
-        <v>2.423932599402069</v>
+        <v>3.84333783332634</v>
       </c>
       <c r="D53">
-        <v>3.923575219071188</v>
+        <v>3.715926281448826</v>
       </c>
       <c r="E53">
-        <v>2.476518402591513</v>
+        <v>3.578413978941768</v>
       </c>
       <c r="F53">
-        <v>3.688152781614735</v>
+        <v>2.80351396381409</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.056989364421282</v>
+        <v>2.903307316427122</v>
       </c>
       <c r="C54">
-        <v>2.447249697859879</v>
+        <v>3.903019363457303</v>
       </c>
       <c r="D54">
-        <v>3.98335961376314</v>
+        <v>3.770677945225231</v>
       </c>
       <c r="E54">
-        <v>2.502083023876314</v>
+        <v>3.634537399788291</v>
       </c>
       <c r="F54">
-        <v>3.743611906487892</v>
+        <v>2.837377132325036</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.101787772994013</v>
+        <v>2.944229719685659</v>
       </c>
       <c r="C55">
-        <v>2.472747759869158</v>
+        <v>3.964713339879211</v>
       </c>
       <c r="D55">
-        <v>4.045367890850711</v>
+        <v>3.82857821747531</v>
       </c>
       <c r="E55">
-        <v>2.52956555126057</v>
+        <v>3.692189404761443</v>
       </c>
       <c r="F55">
-        <v>3.802386954095971</v>
+        <v>2.873943656868873</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.149054657316519</v>
+        <v>2.987487580849321</v>
       </c>
       <c r="C56">
-        <v>2.500754764950884</v>
+        <v>4.028500056185941</v>
       </c>
       <c r="D56">
-        <v>4.109725711178672</v>
+        <v>3.890095677807329</v>
       </c>
       <c r="E56">
-        <v>2.559153822424798</v>
+        <v>3.751372050141021</v>
       </c>
       <c r="F56">
-        <v>3.864976629718745</v>
+        <v>2.913622123240757</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.19891183831515</v>
+        <v>3.033205751352967</v>
       </c>
       <c r="C57">
-        <v>2.531639214884663</v>
+        <v>4.094449406787283</v>
       </c>
       <c r="D57">
-        <v>4.176536960800957</v>
+        <v>3.955724877884963</v>
       </c>
       <c r="E57">
-        <v>2.591042324078297</v>
+        <v>3.812079868188425</v>
       </c>
       <c r="F57">
-        <v>3.931906788730813</v>
+        <v>2.956858905397069</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.251455799788209</v>
+        <v>3.081491157173375</v>
       </c>
       <c r="C58">
-        <v>2.565799946893083</v>
+        <v>4.162617785330446</v>
       </c>
       <c r="D58">
-        <v>4.245875305737459</v>
+        <v>4.025949965897603</v>
       </c>
       <c r="E58">
-        <v>2.625425158891947</v>
+        <v>3.874299638543404</v>
       </c>
       <c r="F58">
-        <v>4.003689711625376</v>
+        <v>3.004114733813758</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.306748929995513</v>
+        <v>3.132425311713015</v>
       </c>
       <c r="C59">
-        <v>2.603643117396878</v>
+        <v>4.233045020888909</v>
       </c>
       <c r="D59">
-        <v>4.3177765933458</v>
+        <v>4.101189439122546</v>
       </c>
       <c r="E59">
-        <v>2.662486164734636</v>
+        <v>3.938010330816025</v>
       </c>
       <c r="F59">
-        <v>4.080760820917995</v>
+        <v>3.055821548469604</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.364811747391783</v>
+        <v>3.186057049463012</v>
       </c>
       <c r="C60">
-        <v>2.645541725863982</v>
+        <v>4.305751569031004</v>
       </c>
       <c r="D60">
-        <v>4.392233232674128</v>
+        <v>4.181724139585512</v>
       </c>
       <c r="E60">
-        <v>2.702385758012113</v>
+        <v>4.003183222862869</v>
       </c>
       <c r="F60">
-        <v>4.163399405424807</v>
+        <v>3.112318380197669</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.425617250142698</v>
+        <v>3.242396439831861</v>
       </c>
       <c r="C61">
-        <v>2.691778015794061</v>
+        <v>4.380736157008267</v>
       </c>
       <c r="D61">
-        <v>4.469191816983643</v>
+        <v>4.267626749516577</v>
       </c>
       <c r="E61">
-        <v>2.74524603460618</v>
+        <v>4.069782167904265</v>
       </c>
       <c r="F61">
-        <v>4.251653216120524</v>
+        <v>3.173776225319147</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.489088572500098</v>
+        <v>3.30141071995332</v>
       </c>
       <c r="C62">
-        <v>2.742478161155093</v>
+        <v>4.45797414897106</v>
       </c>
       <c r="D62">
-        <v>4.548554907175981</v>
+        <v>4.358718780789999</v>
       </c>
       <c r="E62">
-        <v>2.791135634577408</v>
+        <v>4.137764101552587</v>
       </c>
       <c r="F62">
-        <v>4.345299318494483</v>
+        <v>3.240134738938687</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.555100664426017</v>
+        <v>3.363023380760783</v>
       </c>
       <c r="C63">
-        <v>2.797560122510013</v>
+        <v>4.537416920858454</v>
       </c>
       <c r="D63">
-        <v>4.630186240622312</v>
+        <v>4.454579210179952</v>
       </c>
       <c r="E63">
-        <v>2.840056762237381</v>
+        <v>4.207079593143915</v>
       </c>
       <c r="F63">
-        <v>4.443864833477724</v>
+        <v>3.311082148711263</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.623486404937295</v>
+        <v>3.427116905523531</v>
       </c>
       <c r="C64">
-        <v>2.856721897189256</v>
+        <v>4.618992163457481</v>
       </c>
       <c r="D64">
-        <v>4.713919169574333</v>
+        <v>4.554607964255751</v>
       </c>
       <c r="E64">
-        <v>2.891938074127366</v>
+        <v>4.277673514254624</v>
       </c>
       <c r="F64">
-        <v>4.546704963245973</v>
+        <v>3.386096220139651</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.6940455155539</v>
+        <v>3.493538064845902</v>
       </c>
       <c r="C65">
-        <v>2.919480392446436</v>
+        <v>4.702605268811161</v>
       </c>
       <c r="D65">
-        <v>4.799566790050978</v>
+        <v>4.658120775443106</v>
       </c>
       <c r="E65">
-        <v>2.946635544942361</v>
+        <v>4.34948584234949</v>
       </c>
       <c r="F65">
-        <v>4.653108857308305</v>
+        <v>3.464531512776454</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.766555706283515</v>
+        <v>3.562106319281052</v>
       </c>
       <c r="C66">
-        <v>2.985250718158556</v>
+        <v>4.788141742926218</v>
       </c>
       <c r="D66">
-        <v>4.886932065409336</v>
+        <v>4.764440482027966</v>
       </c>
       <c r="E66">
-        <v>3.00394216512689</v>
+        <v>4.422452487283972</v>
       </c>
       <c r="F66">
-        <v>4.762393235164353</v>
+        <v>3.5457201858853</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3.840784199458461</v>
+        <v>3.632623338268666</v>
       </c>
       <c r="C67">
-        <v>3.053433264322095</v>
+        <v>4.875470364051957</v>
       </c>
       <c r="D67">
-        <v>4.97581687390868</v>
+        <v>4.872959851884018</v>
       </c>
       <c r="E67">
-        <v>3.063604800216425</v>
+        <v>4.496506131516803</v>
       </c>
       <c r="F67">
-        <v>4.873961369660218</v>
+        <v>3.629049960790127</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.916498126062459</v>
+        <v>3.704882609316444</v>
       </c>
       <c r="C68">
-        <v>3.123480683402313</v>
+        <v>4.964446907715993</v>
       </c>
       <c r="D68">
-        <v>5.066029106980766</v>
+        <v>4.983171065782097</v>
       </c>
       <c r="E68">
-        <v>3.125344247219788</v>
+        <v>4.571577087284362</v>
       </c>
       <c r="F68">
-        <v>4.987325416532403</v>
+        <v>3.714005653657598</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.99347300842041</v>
+        <v>3.778678140912088</v>
       </c>
       <c r="C69">
-        <v>3.19493314176424</v>
+        <v>5.054918131105661</v>
       </c>
       <c r="D69">
-        <v>5.157387601934187</v>
+        <v>5.094668563232868</v>
       </c>
       <c r="E69">
-        <v>3.188875430191555</v>
+        <v>4.647594133273963</v>
       </c>
       <c r="F69">
-        <v>5.102103351151676</v>
+        <v>3.800178747345133</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.071498822013599</v>
+        <v>3.853811442485955</v>
       </c>
       <c r="C70">
-        <v>3.267426327067121</v>
+        <v>5.146725748625115</v>
       </c>
       <c r="D70">
-        <v>5.249725070333849</v>
+        <v>5.207137372853164</v>
       </c>
       <c r="E70">
-        <v>3.253923966824704</v>
+        <v>4.724485316171711</v>
       </c>
       <c r="F70">
-        <v>5.218003242057421</v>
+        <v>3.887257647572604</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.150383737888083</v>
+        <v>3.930096563224942</v>
       </c>
       <c r="C71">
-        <v>3.340682928685106</v>
+        <v>5.239710162247242</v>
       </c>
       <c r="D71">
-        <v>5.342889391575325</v>
+        <v>5.320336069779124</v>
       </c>
       <c r="E71">
-        <v>3.320237807891135</v>
+        <v>4.802178707895211</v>
       </c>
       <c r="F71">
-        <v>5.334804137867123</v>
+        <v>3.975010105040286</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.229955870445973</v>
+        <v>4.007363264154582</v>
       </c>
       <c r="C72">
-        <v>3.414497224009924</v>
+        <v>5.333713758065048</v>
       </c>
       <c r="D72">
-        <v>5.436743727003448</v>
+        <v>5.434079923125276</v>
       </c>
       <c r="E72">
-        <v>3.387593733810876</v>
+        <v>4.880603105342799</v>
       </c>
       <c r="F72">
-        <v>5.45233845474251</v>
+        <v>4.063264876908371</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.310063505041065</v>
+        <v>4.085458516924545</v>
       </c>
       <c r="C73">
-        <v>3.488718913405678</v>
+        <v>5.428583654027437</v>
       </c>
       <c r="D73">
-        <v>5.531165859243978</v>
+        <v>5.548226582085385</v>
       </c>
       <c r="E73">
-        <v>3.455799600184806</v>
+        <v>4.959688655588677</v>
       </c>
       <c r="F73">
-        <v>5.570477670868718</v>
+        <v>4.151895894251237</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.390574279295312</v>
+        <v>4.164246759651281</v>
       </c>
       <c r="C74">
-        <v>3.563239005125982</v>
+        <v>5.524173842035445</v>
       </c>
       <c r="D74">
-        <v>5.626047092406032</v>
+        <v>5.662664884773127</v>
       </c>
       <c r="E74">
-        <v>3.524693568594685</v>
+        <v>5.039367399075431</v>
       </c>
       <c r="F74">
-        <v>5.689121489506604</v>
+        <v>4.240809816203753</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.471373725558102</v>
+        <v>4.243609279204402</v>
       </c>
       <c r="C75">
-        <v>3.637978601006773</v>
+        <v>5.620346731155769</v>
       </c>
       <c r="D75">
-        <v>5.721290942720907</v>
+        <v>5.777306496802647</v>
       </c>
       <c r="E75">
-        <v>3.594141528299557</v>
+        <v>5.119573722994347</v>
       </c>
       <c r="F75">
-        <v>5.808189940202663</v>
+        <v>4.32993675606421</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.552363488754966</v>
+        <v>4.323442971553667</v>
       </c>
       <c r="C76">
-        <v>3.71288044263387</v>
+        <v>5.716974137595153</v>
       </c>
       <c r="D76">
-        <v>5.816811781936663</v>
+        <v>5.892079832696533</v>
       </c>
       <c r="E76">
-        <v>3.664033658305209</v>
+        <v>5.200244720539571</v>
       </c>
       <c r="F76">
-        <v>5.927617762261948</v>
+        <v>4.419223575121532</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.633459442777323</v>
+        <v>4.403658891826304</v>
       </c>
       <c r="C77">
-        <v>3.787902730297702</v>
+        <v>5.813937796636589</v>
       </c>
       <c r="D77">
-        <v>5.912533530566104</v>
+        <v>6.006925699942189</v>
       </c>
       <c r="E77">
-        <v>3.734280773485317</v>
+        <v>5.281320458391876</v>
       </c>
       <c r="F77">
-        <v>6.047350446727785</v>
+        <v>4.50862911660692</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.714589850655756</v>
+        <v>4.484180632839888</v>
       </c>
       <c r="C78">
-        <v>3.863014688127463</v>
+        <v>5.911129489058009</v>
       </c>
       <c r="D78">
-        <v>6.008388452104197</v>
+        <v>6.121794195197813</v>
       </c>
       <c r="E78">
-        <v>3.804810847128115</v>
+        <v>5.362744157606371</v>
       </c>
       <c r="F78">
-        <v>6.16734146245971</v>
+        <v>4.598120850605254</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.795693652948905</v>
+        <v>4.56494275127691</v>
       </c>
       <c r="C79">
-        <v>3.938193415589313</v>
+        <v>6.008450869435431</v>
       </c>
       <c r="D79">
-        <v>6.104316074133137</v>
+        <v>6.236642495542659</v>
       </c>
       <c r="E79">
-        <v>3.875565902342262</v>
+        <v>5.444462296831882</v>
       </c>
       <c r="F79">
-        <v>6.287550315728265</v>
+        <v>4.687672519714706</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.876718927822096</v>
+        <v>4.64588927999748</v>
       </c>
       <c r="C80">
-        <v>4.013421659645008</v>
+        <v>6.105813080954746</v>
       </c>
       <c r="D80">
-        <v>6.200262241861524</v>
+        <v>6.351433256662981</v>
       </c>
       <c r="E80">
-        <v>3.946499345468236</v>
+        <v>5.526424648476763</v>
       </c>
       <c r="F80">
-        <v>6.407941160609531</v>
+        <v>4.777262465170897</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.957621540174827</v>
+        <v>4.726972379791702</v>
       </c>
       <c r="C81">
-        <v>4.08868621174242</v>
+        <v>6.203136228278824</v>
       </c>
       <c r="D81">
-        <v>6.296178301491133</v>
+        <v>6.466133503065441</v>
       </c>
       <c r="E81">
-        <v>4.017573741717682</v>
+        <v>5.608584259179589</v>
       </c>
       <c r="F81">
-        <v>6.528481821471084</v>
+        <v>4.866872457596204</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.03836396043219</v>
+        <v>4.808151136973512</v>
       </c>
       <c r="C82">
-        <v>4.163976802851625</v>
+        <v>6.300348764459864</v>
       </c>
       <c r="D82">
-        <v>6.392020392142666</v>
+        <v>6.580713791830152</v>
       </c>
       <c r="E82">
-        <v>4.088758992955824</v>
+        <v>5.690897385201531</v>
       </c>
       <c r="F82">
-        <v>6.649143106053776</v>
+        <v>4.956486900296956</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.118914261781145</v>
+        <v>4.889390532932214</v>
       </c>
       <c r="C83">
-        <v>4.239285350445129</v>
+        <v>6.397386844003324</v>
       </c>
       <c r="D83">
-        <v>6.487748838679391</v>
+        <v>6.695147595545717</v>
       </c>
       <c r="E83">
-        <v>4.160030848821662</v>
+        <v>5.773323395100736</v>
       </c>
       <c r="F83">
-        <v>6.769898296056803</v>
+        <v>5.046092209578684</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.199245279255803</v>
+        <v>4.970660546499039</v>
       </c>
       <c r="C84">
-        <v>4.314605356566109</v>
+        <v>6.494193661599247</v>
       </c>
       <c r="D84">
-        <v>6.583327652802826</v>
+        <v>6.809410855496838</v>
       </c>
       <c r="E84">
-        <v>4.231369720174841</v>
+        <v>5.85582464833068</v>
       </c>
       <c r="F84">
-        <v>6.890722751848093</v>
+        <v>5.135676389707147</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.279333889612641</v>
+        <v>5.051935391101632</v>
       </c>
       <c r="C85">
-        <v>4.389931505068936</v>
+        <v>6.590718805861177</v>
       </c>
       <c r="D85">
-        <v>6.678724103727733</v>
+        <v>6.923481635386491</v>
       </c>
       <c r="E85">
-        <v>4.302759763139986</v>
+        <v>5.938366352228587</v>
       </c>
       <c r="F85">
-        <v>7.011593638382241</v>
+        <v>5.225228728364344</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.359160404379451</v>
+        <v>5.133192865394816</v>
       </c>
       <c r="C86">
-        <v>4.465259377909176</v>
+        <v>6.686917648303357</v>
       </c>
       <c r="D86">
-        <v>6.773908342984503</v>
+        <v>7.03733985376834</v>
       </c>
       <c r="E86">
-        <v>4.374188111582216</v>
+        <v>6.020916411479593</v>
       </c>
       <c r="F86">
-        <v>7.132489706993469</v>
+        <v>5.314739565121386</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.438708061515377</v>
+        <v>5.21441381396065</v>
       </c>
       <c r="C87">
-        <v>4.540585243859455</v>
+        <v>6.78275077374424</v>
       </c>
       <c r="D87">
-        <v>6.868853088335777</v>
+        <v>7.15096707582881</v>
       </c>
       <c r="E87">
-        <v>4.445644273647726</v>
+        <v>6.103445272330471</v>
       </c>
       <c r="F87">
-        <v>7.253391123888684</v>
+        <v>5.404200120235022</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.517962603770298</v>
+        <v>5.295581665877756</v>
       </c>
       <c r="C88">
-        <v>4.615905900862083</v>
+        <v>6.878183452102946</v>
       </c>
       <c r="D88">
-        <v>6.963533358364221</v>
+        <v>7.264346345216863</v>
       </c>
       <c r="E88">
-        <v>4.517119669739018</v>
+        <v>6.185925765686794</v>
       </c>
       <c r="F88">
-        <v>7.374279333804473</v>
+        <v>5.493602365964888</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.596911922301912</v>
+        <v>5.376682052222378</v>
       </c>
       <c r="C89">
-        <v>4.691218563312273</v>
+        <v>6.973185154929114</v>
       </c>
       <c r="D89">
-        <v>7.057926243658884</v>
+        <v>7.377462045786403</v>
       </c>
       <c r="E89">
-        <v>4.588607254502307</v>
+        <v>6.268332950980422</v>
       </c>
       <c r="F89">
-        <v>7.495136950214074</v>
+        <v>5.582938927375936</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.675545753859285</v>
+        <v>5.457702483175947</v>
       </c>
       <c r="C90">
-        <v>4.766520779734517</v>
+        <v>7.067729119259306</v>
       </c>
       <c r="D90">
-        <v>7.152010707974951</v>
+        <v>7.490299786582667</v>
       </c>
       <c r="E90">
-        <v>4.660101219724618</v>
+        <v>6.350643963888379</v>
       </c>
       <c r="F90">
-        <v>7.615947661435738</v>
+        <v>5.672203003653335</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.753855430493428</v>
+        <v>5.538632077597009</v>
       </c>
       <c r="C91">
-        <v>4.841810368069047</v>
+        <v>7.161791952663839</v>
       </c>
       <c r="D91">
-        <v>7.245767415156159</v>
+        <v>7.602846304155602</v>
       </c>
       <c r="E91">
-        <v>4.731596757399087</v>
+        <v>6.432837870468886</v>
       </c>
       <c r="F91">
-        <v>7.73669615198768</v>
+        <v>5.761388306664285</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.831833666894377</v>
+        <v>5.61946133614219</v>
       </c>
       <c r="C92">
-        <v>4.917085368742184</v>
+        <v>7.255353281242075</v>
       </c>
       <c r="D92">
-        <v>7.339178579971218</v>
+        <v>7.715089377375299</v>
       </c>
       <c r="E92">
-        <v>4.803089871039919</v>
+        <v>6.514895527600853</v>
       </c>
       <c r="F92">
-        <v>7.857368034189537</v>
+        <v>5.850489010469706</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.90947437873122</v>
+        <v>5.700181949600953</v>
       </c>
       <c r="C93">
-        <v>4.992344008221488</v>
+        <v>7.348395432850773</v>
       </c>
       <c r="D93">
-        <v>7.432227837956093</v>
+        <v>7.827017751917414</v>
       </c>
       <c r="E93">
-        <v>4.874577226228728</v>
+        <v>6.596799451092499</v>
       </c>
       <c r="F93">
-        <v>7.977949787908141</v>
+        <v>5.939499709849372</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.986772530493982</v>
+        <v>5.780786638703999</v>
       </c>
       <c r="C94">
-        <v>5.067584671239212</v>
+        <v>7.440903155098804</v>
       </c>
       <c r="D94">
-        <v>7.524900128972801</v>
+        <v>7.938621074240721</v>
       </c>
       <c r="E94">
-        <v>4.946056028442983</v>
+        <v>6.678533691543257</v>
       </c>
       <c r="F94">
-        <v>8.098428706587274</v>
+        <v>6.028415385282358</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6.063724005067492</v>
+        <v>5.861269017334588</v>
       </c>
       <c r="C95">
-        <v>5.142805878892209</v>
+        <v>7.532863363559809</v>
       </c>
       <c r="D95">
-        <v>7.617181595022649</v>
+        <v>8.049889832527585</v>
       </c>
       <c r="E95">
-        <v>5.017523927034405</v>
+        <v>6.760083717752329</v>
       </c>
       <c r="F95">
-        <v>8.218792848541558</v>
+        <v>6.117231372252295</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6.140325491646935</v>
+        <v>5.941623479222247</v>
       </c>
       <c r="C96">
-        <v>5.218006271420469</v>
+        <v>7.624264916883404</v>
       </c>
       <c r="D96">
-        <v>7.709059488442841</v>
+        <v>8.160815302451697</v>
       </c>
       <c r="E96">
-        <v>5.088978937239854</v>
+        <v>6.841436308387886</v>
       </c>
       <c r="F96">
-        <v>8.339030991802687</v>
+        <v>6.205943335563014</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6.216574390448951</v>
+        <v>6.021845098491437</v>
       </c>
       <c r="C97">
-        <v>5.293184593800148</v>
+        <v>7.715098417498027</v>
       </c>
       <c r="D97">
-        <v>7.800522090460615</v>
+        <v>8.271389496235752</v>
       </c>
       <c r="E97">
-        <v>5.160419377364097</v>
+        <v>6.922579451132001</v>
       </c>
       <c r="F97">
-        <v>8.459132593134161</v>
+        <v>6.294547247167712</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6.292468730361912</v>
+        <v>6.101929543692826</v>
       </c>
       <c r="C98">
-        <v>5.368339684539541</v>
+        <v>7.805356033221528</v>
       </c>
       <c r="D98">
-        <v>7.891558637389313</v>
+        <v>8.381605116850036</v>
       </c>
       <c r="E98">
-        <v>5.231843817469627</v>
+        <v>7.003502249232756</v>
       </c>
       <c r="F98">
-        <v>8.579087750737392</v>
+        <v>6.383039365752987</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6.368007097663207</v>
+        <v>6.181873008928831</v>
       </c>
       <c r="C99">
-        <v>5.443470466957984</v>
+        <v>7.895031338552087</v>
       </c>
       <c r="D99">
-        <v>7.982159253758673</v>
+        <v>8.491455515653417</v>
       </c>
       <c r="E99">
-        <v>5.303251035946325</v>
+        <v>7.084194834923286</v>
       </c>
       <c r="F99">
-        <v>8.698887169069017</v>
+        <v>6.471416217902834</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6.443188572605182</v>
+        <v>6.261672155186912</v>
       </c>
       <c r="C100">
-        <v>5.518575941707828</v>
+        <v>7.984119173013151</v>
       </c>
       <c r="D100">
-        <v>8.07231489271509</v>
+        <v>8.600934652816743</v>
       </c>
       <c r="E100">
-        <v>5.374639986392857</v>
+        <v>7.164648288294406</v>
       </c>
       <c r="F100">
-        <v>8.8185221255754</v>
+        <v>6.559674581132956</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6.518012674694002</v>
+        <v>6.34132405723979</v>
       </c>
       <c r="C101">
-        <v>5.593655180025574</v>
+        <v>8.072615515200674</v>
       </c>
       <c r="D101">
-        <v>8.162017278551421</v>
+        <v>8.71003706109015</v>
       </c>
       <c r="E101">
-        <v>5.446009771258906</v>
+        <v>7.244854563363637</v>
       </c>
       <c r="F101">
-        <v>8.93798443915556</v>
+        <v>6.647811468823769</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6.592479316432439</v>
+        <v>6.420826156646347</v>
       </c>
       <c r="C102">
-        <v>5.668707317799026</v>
+        <v>8.16051736958647</v>
       </c>
       <c r="D102">
-        <v>8.251258855425379</v>
+        <v>8.818757809648417</v>
       </c>
       <c r="E102">
-        <v>5.517359619407498</v>
+        <v>7.324806420643017</v>
       </c>
       <c r="F102">
-        <v>9.057266441360388</v>
+        <v>6.735824116210026</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6.666588762234332</v>
+        <v>6.50017622193615</v>
       </c>
       <c r="C103">
-        <v>5.743731550661277</v>
+        <v>8.247822656040688</v>
       </c>
       <c r="D103">
-        <v>8.340032741831948</v>
+        <v>8.927092472184151</v>
       </c>
       <c r="E103">
-        <v>5.588688866620189</v>
+        <v>7.404497365107095</v>
       </c>
       <c r="F103">
-        <v>9.176360948939047</v>
+        <v>6.823709967669719</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6.740341593117106</v>
+        <v>6.579372314995314</v>
       </c>
       <c r="C104">
-        <v>5.818727129823369</v>
+        <v>8.334530127605181</v>
       </c>
       <c r="D104">
-        <v>8.428332687575327</v>
+        <v>9.035037097576675</v>
       </c>
       <c r="E104">
-        <v>5.659996939250585</v>
+        <v>7.483921587878784</v>
       </c>
       <c r="F104">
-        <v>9.295261238202118</v>
+        <v>6.911466663782499</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6.813738671762751</v>
+        <v>6.658412761669479</v>
       </c>
       <c r="C105">
-        <v>5.893693358407085</v>
+        <v>8.420639290030289</v>
       </c>
       <c r="D105">
-        <v>8.516153034279839</v>
+        <v>9.14258817682291</v>
       </c>
       <c r="E105">
-        <v>5.731283341177018</v>
+        <v>7.563073912761352</v>
       </c>
       <c r="F105">
-        <v>9.413961020814165</v>
+        <v>6.999092030647603</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6.886781113451987</v>
+        <v>6.737296126482186</v>
       </c>
       <c r="C106">
-        <v>5.968629588195896</v>
+        <v>8.506150326370514</v>
       </c>
       <c r="D106">
-        <v>8.603488677586586</v>
+        <v>9.249742623059205</v>
       </c>
       <c r="E106">
-        <v>5.802547643311025</v>
+        <v>7.641949746658226</v>
       </c>
       <c r="F106">
-        <v>9.532454420017302</v>
+        <v>7.086584068603988</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6.959470260597895</v>
+        <v>6.816021187619222</v>
       </c>
       <c r="C107">
-        <v>6.043535216087576</v>
+        <v>8.591064030559606</v>
       </c>
       <c r="D107">
-        <v>8.690335033166987</v>
+        <v>9.356497742927184</v>
       </c>
       <c r="E107">
-        <v>5.873789474880543</v>
+        <v>7.72054503479347</v>
       </c>
       <c r="F107">
-        <v>9.650735947466721</v>
+        <v>7.173940941942458</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7.031807659964922</v>
+        <v>6.894586920442389</v>
       </c>
       <c r="C108">
-        <v>6.1184096820033</v>
+        <v>8.67538174528786</v>
       </c>
       <c r="D108">
-        <v>8.776688003449339</v>
+        <v>9.462851211955593</v>
       </c>
       <c r="E108">
-        <v>5.945008516498132</v>
+        <v>7.798856219267597</v>
       </c>
       <c r="F108">
-        <v>9.768800486217698</v>
+        <v>7.261160971667597</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7.103795042142239</v>
+        <v>6.972992468770891</v>
       </c>
       <c r="C109">
-        <v>6.193252464803968</v>
+        <v>8.759105308797961</v>
       </c>
       <c r="D109">
-        <v>8.862543948267723</v>
+        <v>9.568801053266291</v>
       </c>
       <c r="E109">
-        <v>6.016204491980294</v>
+        <v>7.876880200818486</v>
       </c>
       <c r="F109">
-        <v>9.886643264829239</v>
+        <v>7.348242624798313</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7.17543430458342</v>
+        <v>7.051237142402713</v>
       </c>
       <c r="C110">
-        <v>6.268063081793601</v>
+        <v>8.842237006551244</v>
       </c>
       <c r="D110">
-        <v>8.947899656860123</v>
+        <v>9.674345615869614</v>
       </c>
       <c r="E110">
-        <v>6.08737716566849</v>
+        <v>7.954614303652628</v>
       </c>
       <c r="F110">
-        <v>10.00425984684497</v>
+        <v>7.435184507045217</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7.246727490156642</v>
+        <v>7.129320394760096</v>
       </c>
       <c r="C111">
-        <v>6.342841085179284</v>
+        <v>8.924779526918176</v>
       </c>
       <c r="D111">
-        <v>9.032752321143192</v>
+        <v>9.779483554087616</v>
       </c>
       <c r="E111">
-        <v>6.158526331775351</v>
+        <v>8.032056245642082</v>
       </c>
       <c r="F111">
-        <v>10.12164610868984</v>
+        <v>7.521985354826085</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.317676778481478</v>
+        <v>7.207241812188039</v>
       </c>
       <c r="C112">
-        <v>6.417586060846434</v>
+        <v>9.006735921328977</v>
       </c>
       <c r="D112">
-        <v>9.117099512873235</v>
+        <v>9.884213809024994</v>
       </c>
       <c r="E112">
-        <v>6.229651818260171</v>
+        <v>8.109204100448787</v>
       </c>
       <c r="F112">
-        <v>10.23879822300108</v>
+        <v>7.608644027535777</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7.388284462346025</v>
+        <v>7.285001106378966</v>
       </c>
       <c r="C113">
-        <v>6.492297626535088</v>
+        <v>9.088109570396586</v>
       </c>
       <c r="D113">
-        <v>9.200939159711703</v>
+        <v>9.988535591656658</v>
       </c>
       <c r="E113">
-        <v>6.300753476987389</v>
+        <v>8.186056282275839</v>
       </c>
       <c r="F113">
-        <v>10.35571264456837</v>
+        <v>7.695159500531052</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7.458552945729478</v>
+        <v>7.36259809855601</v>
       </c>
       <c r="C114">
-        <v>6.566975429419045</v>
+        <v>9.168904142330005</v>
       </c>
       <c r="D114">
-        <v>9.284269521493071</v>
+        <v>10.09244836543266</v>
       </c>
       <c r="E114">
-        <v>6.371831185409187</v>
+        <v>8.262611500060437</v>
       </c>
       <c r="F114">
-        <v>10.47238609322335</v>
+        <v>7.781530859299001</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7.528484726815477</v>
+        <v>7.440032712806352</v>
       </c>
       <c r="C115">
-        <v>6.641619145039389</v>
+        <v>9.24912357953662</v>
       </c>
       <c r="D115">
-        <v>9.367089171898746</v>
+        <v>10.19595182971357</v>
       </c>
       <c r="E115">
-        <v>6.442884842764955</v>
+        <v>8.338868759162795</v>
       </c>
       <c r="F115">
-        <v>10.58881554054229</v>
+        <v>7.867757292511225</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7.598082388689339</v>
+        <v>7.51730496745222</v>
       </c>
       <c r="C116">
-        <v>6.716228475345615</v>
+        <v>9.32877203615192</v>
       </c>
       <c r="D116">
-        <v>9.449396976741921</v>
+        <v>10.29904590629423</v>
       </c>
       <c r="E116">
-        <v>6.513914366615242</v>
+        <v>8.414827316776808</v>
       </c>
       <c r="F116">
-        <v>10.70499819756684</v>
+        <v>7.953838086552468</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7.667348593967652</v>
+        <v>7.594414965052457</v>
       </c>
       <c r="C117">
-        <v>6.790803147283248</v>
+        <v>9.407853903454459</v>
       </c>
       <c r="D117">
-        <v>9.531192079110571</v>
+        <v>10.40173072463696</v>
       </c>
       <c r="E117">
-        <v>6.584919692623279</v>
+        <v>8.490486680908164</v>
       </c>
       <c r="F117">
-        <v>10.82093149922166</v>
+        <v>8.039772620233119</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7.73628606979893</v>
+        <v>7.671362888554551</v>
       </c>
       <c r="C118">
-        <v>6.865342911724759</v>
+        <v>9.486373729679922</v>
       </c>
       <c r="D118">
-        <v>9.612473881514141</v>
+        <v>10.50400660782115</v>
       </c>
       <c r="E118">
-        <v>6.655900771417175</v>
+        <v>8.565846581915459</v>
       </c>
       <c r="F118">
-        <v>10.93661309550128</v>
+        <v>8.125560359074699</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7.80489760544757</v>
+        <v>7.748148994074201</v>
       </c>
       <c r="C119">
-        <v>6.939847541616441</v>
+        <v>9.564336258427332</v>
       </c>
       <c r="D119">
-        <v>9.693242028948493</v>
+        <v>10.60587406122694</v>
       </c>
       <c r="E119">
-        <v>6.726857567519457</v>
+        <v>8.640906956588875</v>
       </c>
       <c r="F119">
-        <v>11.05204083833533</v>
+        <v>8.211200850554903</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7.873186041112874</v>
+        <v>7.82477360369038</v>
       </c>
       <c r="C120">
-        <v>7.01431683145232</v>
+        <v>9.641746359490991</v>
       </c>
       <c r="D120">
-        <v>9.77349639820474</v>
+        <v>10.707333760376</v>
       </c>
       <c r="E120">
-        <v>6.797790058617567</v>
+        <v>8.71566793656125</v>
       </c>
       <c r="F120">
-        <v>11.16721277012282</v>
+        <v>8.296693719664699</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7.941154262941907</v>
+        <v>7.901237102825926</v>
       </c>
       <c r="C121">
-        <v>7.088750595595787</v>
+        <v>9.718609050275342</v>
       </c>
       <c r="D121">
-        <v>9.853237076651073</v>
+        <v>10.80838653923973</v>
       </c>
       <c r="E121">
-        <v>6.868698233117664</v>
+        <v>8.790129824483829</v>
       </c>
       <c r="F121">
-        <v>11.28212711532152</v>
+        <v>8.382038664084384</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>8.008805198174928</v>
+        <v>7.97753993337581</v>
       </c>
       <c r="C122">
-        <v>7.163148667458308</v>
+        <v>9.794929451422908</v>
       </c>
       <c r="D122">
-        <v>9.932464356003697</v>
+        <v>10.90903338071253</v>
       </c>
       <c r="E122">
-        <v>6.939582090946024</v>
+        <v>8.864293091226966</v>
       </c>
       <c r="F122">
-        <v>11.39678226869021</v>
+        <v>8.467235450211316</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8.076141806080885</v>
+        <v>8.053682589700747</v>
       </c>
       <c r="C123">
-        <v>7.237510898460634</v>
+        <v>9.870712789511696</v>
       </c>
       <c r="D123">
-        <v>10.0111787110167</v>
+        <v>11.00927540746692</v>
       </c>
       <c r="E123">
-        <v>7.010441641189317</v>
+        <v>8.938158351973781</v>
       </c>
       <c r="F123">
-        <v>11.51117678710142</v>
+        <v>8.552283909404583</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8.143167078088242</v>
+        <v>8.129665615086068</v>
       </c>
       <c r="C124">
-        <v>7.311837156831701</v>
+        <v>9.945964372110813</v>
       </c>
       <c r="D124">
-        <v>10.08938079795121</v>
+        <v>11.10911386759467</v>
       </c>
       <c r="E124">
-        <v>7.081276902187506</v>
+        <v>9.011726365608801</v>
       </c>
       <c r="F124">
-        <v>11.62530938108475</v>
+        <v>8.63718393388069</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8.209884028491045</v>
+        <v>8.205489596928688</v>
       </c>
       <c r="C125">
-        <v>7.386127327006304</v>
+        <v>10.02068958316529</v>
       </c>
       <c r="D125">
-        <v>10.1670714318517</v>
+        <v>11.20855013587671</v>
       </c>
       <c r="E125">
-        <v>7.152087900396899</v>
+        <v>9.084998014743501</v>
       </c>
       <c r="F125">
-        <v>11.73917890494227</v>
+        <v>8.7219354733893</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8.276295693699112</v>
+        <v>8.281155164130459</v>
       </c>
       <c r="C126">
-        <v>7.460381308482965</v>
+        <v>10.09489386668654</v>
       </c>
       <c r="D126">
-        <v>10.24425158765841</v>
+        <v>11.30758568806665</v>
       </c>
       <c r="E126">
-        <v>7.222874669615717</v>
+        <v>9.157974302769039</v>
       </c>
       <c r="F126">
-        <v>11.85278435072762</v>
+        <v>8.806538531982921</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>8.342405126260671</v>
+        <v>8.356662983850248</v>
       </c>
       <c r="C127">
-        <v>7.534599015153758</v>
+        <v>10.16858271952747</v>
       </c>
       <c r="D127">
-        <v>10.3209223792929</v>
+        <v>11.40622211727348</v>
       </c>
       <c r="E127">
-        <v>7.293637250712924</v>
+        <v>9.230656340758394</v>
       </c>
       <c r="F127">
-        <v>11.96612483983412</v>
+        <v>8.890993164994073</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>8.408215391732</v>
+        <v>8.432013757796879</v>
       </c>
       <c r="C128">
-        <v>7.608780374558881</v>
+        <v>10.24176168226598</v>
       </c>
       <c r="D128">
-        <v>10.39708506025448</v>
+        <v>11.5044611007937</v>
       </c>
       <c r="E128">
-        <v>7.364375690714137</v>
+        <v>9.303045339278151</v>
       </c>
       <c r="F128">
-        <v>12.07919961543884</v>
+        <v>8.975299475414042</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>8.473729566264442</v>
+        <v>8.507208220436949</v>
       </c>
       <c r="C129">
-        <v>7.682925326947599</v>
+        <v>10.31443632753496</v>
       </c>
       <c r="D129">
-        <v>10.47274100610662</v>
+        <v>11.60230441385885</v>
       </c>
       <c r="E129">
-        <v>7.435090042629244</v>
+        <v>9.375142602940977</v>
       </c>
       <c r="F129">
-        <v>12.19200803710916</v>
+        <v>9.059457611352844</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>8.538950731717335</v>
+        <v>8.582247135962326</v>
       </c>
       <c r="C130">
-        <v>7.757033824860893</v>
+        <v>10.38661225825395</v>
       </c>
       <c r="D130">
-        <v>10.54789171309333</v>
+        <v>11.69975391340513</v>
       </c>
       <c r="E130">
-        <v>7.505780364894828</v>
+        <v>9.446949517816433</v>
       </c>
       <c r="F130">
-        <v>12.30454957305868</v>
+        <v>9.143467764110083</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8.60388197518059</v>
+        <v>8.657131295648773</v>
       </c>
       <c r="C131">
-        <v>7.831105832231691</v>
+        <v>10.45829509189476</v>
       </c>
       <c r="D131">
-        <v>10.62253878457042</v>
+        <v>11.79681153219753</v>
       </c>
       <c r="E131">
-        <v>7.576446720886142</v>
+        <v>9.518467550741713</v>
       </c>
       <c r="F131">
-        <v>12.41682379488302</v>
+        <v>9.227330162540431</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>8.668526384511035</v>
+        <v>8.731861516307594</v>
       </c>
       <c r="C132">
-        <v>7.905141323891523</v>
+        <v>10.52949046303345</v>
       </c>
       <c r="D132">
-        <v>10.6966839277457</v>
+        <v>11.89347927818055</v>
       </c>
       <c r="E132">
-        <v>7.647089178759717</v>
+        <v>9.589698236747473</v>
       </c>
       <c r="F132">
-        <v>12.52883037198167</v>
+        <v>9.311045077001214</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>8.732887047317183</v>
+        <v>8.806438637692873</v>
       </c>
       <c r="C133">
-        <v>7.979140284980906</v>
+        <v>10.60020400841758</v>
       </c>
       <c r="D133">
-        <v>10.770328943469</v>
+        <v>11.98975922142701</v>
       </c>
       <c r="E133">
-        <v>7.717707810876347</v>
+        <v>9.660643178642255</v>
       </c>
       <c r="F133">
-        <v>12.64056906514637</v>
+        <v>9.394612808442199</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>8.796967048452744</v>
+        <v>8.880863520894955</v>
       </c>
       <c r="C134">
-        <v>8.053102710248275</v>
+        <v>10.6704413695237</v>
       </c>
       <c r="D134">
-        <v>10.84347572157571</v>
+        <v>12.08565349693355</v>
       </c>
       <c r="E134">
-        <v>7.7883026936504</v>
+        <v>9.731304036886755</v>
       </c>
       <c r="F134">
-        <v>12.75203972261153</v>
+        <v>9.478033695845461</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>8.860769467542781</v>
+        <v>8.955137047126742</v>
       </c>
       <c r="C135">
-        <v>8.127028603726423</v>
+        <v>10.74020817997321</v>
       </c>
       <c r="D135">
-        <v>10.91612623364655</v>
+        <v>12.18116429136024</v>
       </c>
       <c r="E135">
-        <v>7.858873907180719</v>
+        <v>9.801682527901356</v>
       </c>
       <c r="F135">
-        <v>12.86324227457827</v>
+        <v>9.561308105686541</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>8.924297378305084</v>
+        <v>9.029260114054379</v>
       </c>
       <c r="C136">
-        <v>8.200917978042737</v>
+        <v>10.80951006793186</v>
       </c>
       <c r="D136">
-        <v>10.98828252693161</v>
+        <v>12.27629384709237</v>
       </c>
       <c r="E136">
-        <v>7.929421534956703</v>
+        <v>9.87178041721593</v>
       </c>
       <c r="F136">
-        <v>12.97417672855082</v>
+        <v>9.644436435801573</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>8.987553845679649</v>
+        <v>9.103233637545758</v>
       </c>
       <c r="C137">
-        <v>8.274770854060305</v>
+        <v>10.87835264575595</v>
       </c>
       <c r="D137">
-        <v>11.05994672001332</v>
+        <v>12.37104444841133</v>
       </c>
       <c r="E137">
-        <v>7.999945663718682</v>
+        <v>9.941599515512058</v>
       </c>
       <c r="F137">
-        <v>13.08484316632184</v>
+        <v>9.727419111262019</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>9.05054192544406</v>
+        <v>9.177058546454498</v>
       </c>
       <c r="C138">
-        <v>8.348587260412323</v>
+        <v>10.94674151142923</v>
       </c>
       <c r="D138">
-        <v>11.13112099514695</v>
+        <v>12.46541842848593</v>
       </c>
       <c r="E138">
-        <v>8.07044638308999</v>
+        <v>10.01114167556908</v>
       </c>
       <c r="F138">
-        <v>13.19524173581202</v>
+        <v>9.810256582378216</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>9.113264662129801</v>
+        <v>9.250735783197515</v>
       </c>
       <c r="C139">
-        <v>8.422367232979619</v>
+        <v>11.01468224095898</v>
       </c>
       <c r="D139">
-        <v>11.2018075966481</v>
+        <v>12.55941815436639</v>
       </c>
       <c r="E139">
-        <v>8.140923785501029</v>
+        <v>10.08040878583028</v>
       </c>
       <c r="F139">
-        <v>13.30537265399267</v>
+        <v>9.892949324598682</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>9.175725088070848</v>
+        <v>9.324266304724707</v>
       </c>
       <c r="C140">
-        <v>8.496110814636447</v>
+        <v>11.08218038816132</v>
       </c>
       <c r="D140">
-        <v>11.27200882200554</v>
+        <v>12.65304603289851</v>
       </c>
       <c r="E140">
-        <v>8.211377965907753</v>
+        <v>10.14940277008034</v>
       </c>
       <c r="F140">
-        <v>13.4152361942253</v>
+        <v>9.975497834670174</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>9.237926222548493</v>
+        <v>9.397651075380466</v>
       </c>
       <c r="C141">
-        <v>8.569818054784269</v>
+        <v>11.14924147996843</v>
       </c>
       <c r="D141">
-        <v>11.34172702187957</v>
+        <v>12.74630450209958</v>
       </c>
       <c r="E141">
-        <v>8.281809021636018</v>
+        <v>10.21812558084644</v>
       </c>
       <c r="F141">
-        <v>13.52483268860106</v>
+        <v>10.05790263192372</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>9.299871070094495</v>
+        <v>9.470891074005323</v>
       </c>
       <c r="C142">
-        <v>8.643489009026997</v>
+        <v>11.21587101451567</v>
       </c>
       <c r="D142">
-        <v>11.41096459159192</v>
+        <v>12.8391960292365</v>
       </c>
       <c r="E142">
-        <v>8.352217052295682</v>
+        <v>10.28657919918368</v>
       </c>
       <c r="F142">
-        <v>13.63416252766593</v>
+        <v>10.14016425371177</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>9.361562620449822</v>
+        <v>9.543987285026384</v>
       </c>
       <c r="C143">
-        <v>8.717123738567352</v>
+        <v>11.28207445914158</v>
       </c>
       <c r="D143">
-        <v>11.47972397116768</v>
+        <v>12.931723109247</v>
       </c>
       <c r="E143">
-        <v>8.422602159383784</v>
+        <v>10.35476562934423</v>
       </c>
       <c r="F143">
-        <v>13.74322614540139</v>
+        <v>10.22228325783659</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>9.423003846981093</v>
+        <v>9.616940702844623</v>
       </c>
       <c r="C144">
-        <v>8.790722310582243</v>
+        <v>11.34785724692121</v>
       </c>
       <c r="D144">
-        <v>11.5480076378933</v>
+        <v>13.02388825896978</v>
       </c>
       <c r="E144">
-        <v>8.492964446410275</v>
+        <v>10.42268689795024</v>
       </c>
       <c r="F144">
-        <v>13.85202403322909</v>
+        <v>10.30426021771449</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>9.484197706458096</v>
+        <v>9.689752329222051</v>
       </c>
       <c r="C145">
-        <v>8.86428479674243</v>
+        <v>11.41322477701552</v>
       </c>
       <c r="D145">
-        <v>11.6158181061886</v>
+        <v>13.11569401800353</v>
       </c>
       <c r="E145">
-        <v>8.563304018636215</v>
+        <v>10.49034505026431</v>
       </c>
       <c r="F145">
-        <v>13.96055672048797</v>
+        <v>10.38609572392286</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>9.545147138586715</v>
+        <v>9.762423171578451</v>
       </c>
       <c r="C146">
-        <v>8.937811274012832</v>
+        <v>11.47818241005952</v>
       </c>
       <c r="D146">
-        <v>11.68315792123655</v>
+        <v>13.20714294226811</v>
       </c>
       <c r="E146">
-        <v>8.633620982662656</v>
+        <v>10.55774214833251</v>
       </c>
       <c r="F146">
-        <v>14.06882478264131</v>
+        <v>10.46779038221339</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>9.605855064460227</v>
+        <v>9.83495424415012</v>
       </c>
       <c r="C147">
-        <v>9.011301824115137</v>
+        <v>11.54273546979528</v>
       </c>
       <c r="D147">
-        <v>11.75002965854281</v>
+        <v>13.29823760674545</v>
       </c>
       <c r="E147">
-        <v>8.703915447146665</v>
+        <v>10.62488026911002</v>
       </c>
       <c r="F147">
-        <v>14.17682883601474</v>
+        <v>10.54934481183593</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>9.666324386391564</v>
+        <v>9.907346564926948</v>
       </c>
       <c r="C148">
-        <v>9.084756532504359</v>
+        <v>11.60688923874089</v>
       </c>
       <c r="D148">
-        <v>11.81643591869041</v>
+        <v>13.3889805974443</v>
       </c>
       <c r="E148">
-        <v>8.77418752156345</v>
+        <v>10.69176150138769</v>
       </c>
       <c r="F148">
-        <v>14.2845695321037</v>
+        <v>10.63075964600892</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>9.726557989355308</v>
+        <v>9.979601157402469</v>
       </c>
       <c r="C149">
-        <v>9.158175489631795</v>
+        <v>11.67064895964595</v>
       </c>
       <c r="D149">
-        <v>11.88237932644917</v>
+        <v>13.47937451554487</v>
       </c>
       <c r="E149">
-        <v>8.844437316950446</v>
+        <v>10.75838794540355</v>
       </c>
       <c r="F149">
-        <v>14.39204756105453</v>
+        <v>10.71203552921</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>9.786558735970113</v>
+        <v>10.05171904776543</v>
       </c>
       <c r="C150">
-        <v>9.231558789065778</v>
+        <v>11.73401983210882</v>
       </c>
       <c r="D150">
-        <v>11.94786252668577</v>
+        <v>13.56942196974665</v>
       </c>
       <c r="E150">
-        <v>8.914664945665578</v>
+        <v>10.82476170970111</v>
       </c>
       <c r="F150">
-        <v>14.49926364291924</v>
+        <v>10.79317311807543</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>9.846329471268801</v>
+        <v>10.12370126566008</v>
       </c>
       <c r="C151">
-        <v>9.30490652835026</v>
+        <v>11.79700701364014</v>
       </c>
       <c r="D151">
-        <v>12.01288818294239</v>
+        <v>13.65912557917104</v>
       </c>
       <c r="E151">
-        <v>8.984870520874729</v>
+        <v>10.89088491140085</v>
       </c>
       <c r="F151">
-        <v>14.6062185310039</v>
+        <v>10.87417307877679</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>9.905873019858255</v>
+        <v>10.19554884381193</v>
       </c>
       <c r="C152">
-        <v>9.3782188085857</v>
+        <v>11.8596156171919</v>
       </c>
       <c r="D152">
-        <v>12.07745897449433</v>
+        <v>13.74848796880113</v>
       </c>
       <c r="E152">
-        <v>9.055054157096531</v>
+        <v>10.95675967106151</v>
       </c>
       <c r="F152">
-        <v>14.71291300667986</v>
+        <v>10.95503608819457</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>9.965192184020296</v>
+        <v>10.26726281602873</v>
       </c>
       <c r="C153">
-        <v>9.451495733802743</v>
+        <v>11.92185071181608</v>
       </c>
       <c r="D153">
-        <v>12.14157759435377</v>
+        <v>13.83751176905854</v>
       </c>
       <c r="E153">
-        <v>9.125215969548359</v>
+        <v>11.0223881154731</v>
       </c>
       <c r="F153">
-        <v>14.81934787791912</v>
+        <v>11.03576283143156</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>10.02428974900822</v>
+        <v>10.33884421904051</v>
       </c>
       <c r="C154">
-        <v>9.52473741144345</v>
+        <v>11.98371732104628</v>
       </c>
       <c r="D154">
-        <v>12.20524674745361</v>
+        <v>13.92619961455066</v>
       </c>
       <c r="E154">
-        <v>9.195356074403586</v>
+        <v>11.08777237463094</v>
       </c>
       <c r="F154">
-        <v>14.92552398099219</v>
+        <v>11.11635400221827</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>10.08316847618797</v>
+        <v>10.41029408963425</v>
       </c>
       <c r="C155">
-        <v>9.597943951484744</v>
+        <v>12.0452204231266</v>
       </c>
       <c r="D155">
-        <v>12.26846914803876</v>
+        <v>14.01455414153051</v>
       </c>
       <c r="E155">
-        <v>9.265474588674186</v>
+        <v>11.15291457579745</v>
       </c>
       <c r="F155">
-        <v>15.03144217254375</v>
+        <v>11.19681030208536</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>10.14183110721814</v>
+        <v>10.48161346612274</v>
       </c>
       <c r="C156">
-        <v>9.671115466723032</v>
+        <v>12.10636495021123</v>
       </c>
       <c r="D156">
-        <v>12.33124751895443</v>
+        <v>14.10257798845303</v>
       </c>
       <c r="E156">
-        <v>9.33557162997776</v>
+        <v>11.21781685396387</v>
       </c>
       <c r="F156">
-        <v>15.13710333492017</v>
+        <v>11.2771324391982</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>10.20028036352733</v>
+        <v>10.55280338706288</v>
       </c>
       <c r="C157">
-        <v>9.74425207254094</v>
+        <v>12.16715578812711</v>
       </c>
       <c r="D157">
-        <v>12.39358458851282</v>
+        <v>14.19027379246113</v>
       </c>
       <c r="E157">
-        <v>9.405647316751468</v>
+        <v>11.28248133840484</v>
       </c>
       <c r="F157">
-        <v>15.24250836915716</v>
+        <v>11.35732112883463</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10.2585189441128</v>
+        <v>10.6238648908818</v>
       </c>
       <c r="C158">
-        <v>9.81735388644605</v>
+        <v>12.22759777697951</v>
       </c>
       <c r="D158">
-        <v>12.45548309144746</v>
+        <v>14.27764419094409</v>
       </c>
       <c r="E158">
-        <v>9.475701767886251</v>
+        <v>11.34691015618492</v>
       </c>
       <c r="F158">
-        <v>15.34765819642964</v>
+        <v>11.43737709151765</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10.31654952784738</v>
+        <v>10.6947990162041</v>
       </c>
       <c r="C159">
-        <v>9.890421028580329</v>
+        <v>12.28769570920077</v>
       </c>
       <c r="D159">
-        <v>12.51694576347295</v>
+        <v>14.36469181761334</v>
       </c>
       <c r="E159">
-        <v>9.54573510287924</v>
+        <v>11.41110543869085</v>
       </c>
       <c r="F159">
-        <v>15.45255375716278</v>
+        <v>11.51730105389098</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>10.37437477178418</v>
+        <v>10.76560680048081</v>
       </c>
       <c r="C160">
-        <v>9.963453620802744</v>
+        <v>12.34745432966293</v>
       </c>
       <c r="D160">
-        <v>12.57797534193965</v>
+        <v>14.45141930453084</v>
       </c>
       <c r="E160">
-        <v>9.615747441804237</v>
+        <v>11.47506930756462</v>
       </c>
       <c r="F160">
-        <v>15.55719600690139</v>
+        <v>11.59709374689448</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>10.43199731170078</v>
+        <v>10.8362892809939</v>
       </c>
       <c r="C161">
-        <v>10.03645178708858</v>
+        <v>12.40687833986678</v>
       </c>
       <c r="D161">
-        <v>12.63857456815332</v>
+        <v>14.53782927832691</v>
       </c>
       <c r="E161">
-        <v>9.685738905047211</v>
+        <v>11.53880388296976</v>
       </c>
       <c r="F161">
-        <v>15.66158591898791</v>
+        <v>11.67675590644595</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>10.48941976288401</v>
+        <v>10.90684749329574</v>
       </c>
       <c r="C162">
-        <v>10.10941565336193</v>
+        <v>12.46597238986402</v>
       </c>
       <c r="D162">
-        <v>12.69874617654152</v>
+        <v>14.62392436179928</v>
       </c>
       <c r="E162">
-        <v>9.755709613559587</v>
+        <v>11.60231128253771</v>
       </c>
       <c r="F162">
-        <v>15.76572447949555</v>
+        <v>11.75628827219961</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>10.54664471844144</v>
+        <v>10.97728247187647</v>
       </c>
       <c r="C163">
-        <v>10.18234534704951</v>
+        <v>12.52474108363149</v>
       </c>
       <c r="D163">
-        <v>12.75849290166609</v>
+        <v>14.70970717144274</v>
       </c>
       <c r="E163">
-        <v>9.82565968855701</v>
+        <v>11.66559361559758</v>
       </c>
       <c r="F163">
-        <v>15.8696126890378</v>
+        <v>11.83569158752226</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10.60367475093685</v>
+        <v>11.04759524973314</v>
       </c>
       <c r="C164">
-        <v>10.25524099747268</v>
+        <v>12.58318898271263</v>
       </c>
       <c r="D164">
-        <v>12.81781747965526</v>
+        <v>14.79518031759257</v>
       </c>
       <c r="E164">
-        <v>9.895589251607737</v>
+        <v>11.72865298744195</v>
       </c>
       <c r="F164">
-        <v>15.9732515608228</v>
+        <v>11.91496659916817</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10.66051241180198</v>
+        <v>11.11778685772986</v>
       </c>
       <c r="C165">
-        <v>10.3281027352427</v>
+        <v>12.64132059626588</v>
       </c>
       <c r="D165">
-        <v>12.87672263463261</v>
+        <v>14.8803464036251</v>
       </c>
       <c r="E165">
-        <v>9.965498424633891</v>
+        <v>11.79149149674089</v>
       </c>
       <c r="F165">
-        <v>16.07664211865625</v>
+        <v>11.99411405648981</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10.71716023094825</v>
+        <v>11.18785832522899</v>
       </c>
       <c r="C166">
-        <v>10.40093069246876</v>
+        <v>12.69914038911642</v>
       </c>
       <c r="D166">
-        <v>12.93521108974365</v>
+        <v>14.96520802486846</v>
       </c>
       <c r="E166">
-        <v>10.03538732973349</v>
+        <v>11.85411123391058</v>
       </c>
       <c r="F166">
-        <v>16.17978539857171</v>
+        <v>12.07313471179142</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>10.77362071833157</v>
+        <v>11.2578106789436</v>
       </c>
       <c r="C167">
-        <v>10.47372500264742</v>
+        <v>12.75665278255954</v>
       </c>
       <c r="D167">
-        <v>12.9932855642857</v>
+        <v>15.04976776889335</v>
       </c>
       <c r="E167">
-        <v>10.10525608930418</v>
+        <v>11.91651428404496</v>
       </c>
       <c r="F167">
-        <v>16.28268244471434</v>
+        <v>12.15202931915636</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>10.8298963622482</v>
+        <v>11.32764494362292</v>
       </c>
       <c r="C168">
-        <v>10.54648580035785</v>
+        <v>12.81386214797471</v>
       </c>
       <c r="D168">
-        <v>13.05094876580385</v>
+        <v>15.13402821382299</v>
       </c>
       <c r="E168">
-        <v>10.17510482589712</v>
+        <v>11.97870272233559</v>
       </c>
       <c r="F168">
-        <v>16.38533431150319</v>
+        <v>12.23079863506836</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10.88598963061476</v>
+        <v>11.39736214135291</v>
       </c>
       <c r="C169">
-        <v>10.6192132215143</v>
+        <v>12.87077281294241</v>
       </c>
       <c r="D169">
-        <v>13.10820339756529</v>
+        <v>15.21799192917529</v>
       </c>
       <c r="E169">
-        <v>10.24493366222925</v>
+        <v>12.04067861582656</v>
       </c>
       <c r="F169">
-        <v>16.48774206109676</v>
+        <v>12.30944341723739</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.94190297100936</v>
+        <v>11.4669632915775</v>
       </c>
       <c r="C170">
-        <v>10.69190740293657</v>
+        <v>12.92738906033498</v>
       </c>
       <c r="D170">
-        <v>13.16505215434538</v>
+        <v>15.30166147395881</v>
       </c>
       <c r="E170">
-        <v>10.3147427212044</v>
+        <v>12.10244402481597</v>
       </c>
       <c r="F170">
-        <v>16.58990676290874</v>
+        <v>12.38796442504535</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10.99763881016751</v>
+        <v>11.53644941116233</v>
       </c>
       <c r="C171">
-        <v>10.76456848249077</v>
+        <v>12.98371512632381</v>
       </c>
       <c r="D171">
-        <v>13.22149771985572</v>
+        <v>15.38503939774197</v>
       </c>
       <c r="E171">
-        <v>10.3845321257771</v>
+        <v>12.16400099816776</v>
       </c>
       <c r="F171">
-        <v>16.69182949410228</v>
+        <v>12.466362418869</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>11.05319955491892</v>
+        <v>11.60582151382157</v>
       </c>
       <c r="C172">
-        <v>10.83719659903818</v>
+        <v>13.0397552032921</v>
       </c>
       <c r="D172">
-        <v>13.2775427704067</v>
+        <v>15.46812823881653</v>
       </c>
       <c r="E172">
-        <v>10.45430199905111</v>
+        <v>12.22535157648347</v>
       </c>
       <c r="F172">
-        <v>16.79351133687046</v>
+        <v>12.54463815996493</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>11.10858759174089</v>
+        <v>11.67508061059687</v>
       </c>
       <c r="C173">
-        <v>10.90979189215579</v>
+        <v>13.09551343902358</v>
       </c>
       <c r="D173">
-        <v>13.3331899707544</v>
+        <v>15.55093052511681</v>
       </c>
       <c r="E173">
-        <v>10.52405246417415</v>
+        <v>12.28649779157288</v>
       </c>
       <c r="F173">
-        <v>16.89495338016436</v>
+        <v>12.6227924103783</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>11.16380528709969</v>
+        <v>11.74422770914974</v>
       </c>
       <c r="C174">
-        <v>10.98235450237068</v>
+        <v>13.15099393662604</v>
       </c>
       <c r="D174">
-        <v>13.38844197390801</v>
+        <v>15.63344877292373</v>
       </c>
       <c r="E174">
-        <v>10.59378364433232</v>
+        <v>12.34744166384636</v>
       </c>
       <c r="F174">
-        <v>16.99615671705475</v>
+        <v>12.70082593240982</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>11.21885498789507</v>
+        <v>11.81326381412228</v>
       </c>
       <c r="C175">
-        <v>11.05488457082261</v>
+        <v>13.20620075644089</v>
       </c>
       <c r="D175">
-        <v>13.4433014236647</v>
+        <v>15.71568548715218</v>
       </c>
       <c r="E175">
-        <v>10.6634956627896</v>
+        <v>12.40818520486257</v>
       </c>
       <c r="F175">
-        <v>17.097122445369</v>
+        <v>12.77873948886587</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>11.27373902107415</v>
+        <v>11.88218992688505</v>
       </c>
       <c r="C176">
-        <v>11.12738223935691</v>
+        <v>13.26113791482868</v>
       </c>
       <c r="D176">
-        <v>13.49777094958436</v>
+        <v>15.79764316089083</v>
       </c>
       <c r="E176">
-        <v>10.73318864276984</v>
+        <v>12.46873041557389</v>
       </c>
       <c r="F176">
-        <v>17.19785166721864</v>
+        <v>12.85653384235188</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>11.32845969430628</v>
+        <v>11.95100704535314</v>
       </c>
       <c r="C177">
-        <v>11.19984765050394</v>
+        <v>13.31580938495372</v>
       </c>
       <c r="D177">
-        <v>13.55185316890769</v>
+        <v>15.87932427501087</v>
       </c>
       <c r="E177">
-        <v>10.80286270753033</v>
+        <v>12.52907928591293</v>
       </c>
       <c r="F177">
-        <v>17.29834548745396</v>
+        <v>12.93420975565329</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>11.38301929597935</v>
+        <v>12.01971616421734</v>
       </c>
       <c r="C178">
-        <v>11.27228094726179</v>
+        <v>13.37021909864375</v>
       </c>
       <c r="D178">
-        <v>13.60555068902113</v>
+        <v>15.96073129832316</v>
       </c>
       <c r="E178">
-        <v>10.87251798029916</v>
+        <v>12.58923379629181</v>
       </c>
       <c r="F178">
-        <v>17.39860501484456</v>
+        <v>13.01176799104094</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>11.43742009521616</v>
+        <v>12.08831827448078</v>
       </c>
       <c r="C179">
-        <v>11.34468227325521</v>
+        <v>13.42437094449388</v>
       </c>
       <c r="D179">
-        <v>13.65886610091029</v>
+        <v>16.0418666869339</v>
       </c>
       <c r="E179">
-        <v>10.94215458425571</v>
+        <v>12.64919591526675</v>
       </c>
       <c r="F179">
-        <v>17.49863135986381</v>
+        <v>13.08920931052667</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>11.49166434245436</v>
+        <v>12.15681436380377</v>
       </c>
       <c r="C180">
-        <v>11.41705177251333</v>
+        <v>13.47826876972852</v>
       </c>
       <c r="D180">
-        <v>13.71180198296563</v>
+        <v>16.12273288485709</v>
       </c>
       <c r="E180">
-        <v>11.0117726425639</v>
+        <v>12.70896760072461</v>
       </c>
       <c r="F180">
-        <v>17.59842563562362</v>
+        <v>13.16653447551096</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>11.54575426920072</v>
+        <v>12.22520541613327</v>
       </c>
       <c r="C181">
-        <v>11.48938958951008</v>
+        <v>13.5319163812482</v>
       </c>
       <c r="D181">
-        <v>13.76436090150036</v>
+        <v>16.2033323223957</v>
       </c>
       <c r="E181">
-        <v>11.08137227829102</v>
+        <v>12.76855080012485</v>
       </c>
       <c r="F181">
-        <v>17.69798895701678</v>
+        <v>13.24374424666133</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>11.5996920884888</v>
+        <v>12.29349241182063</v>
       </c>
       <c r="C182">
-        <v>11.56169586916264</v>
+        <v>13.58531754431608</v>
       </c>
       <c r="D182">
-        <v>13.81654540656745</v>
+        <v>16.28366741663247</v>
       </c>
       <c r="E182">
-        <v>11.15095361445353</v>
+        <v>12.82794744886915</v>
       </c>
       <c r="F182">
-        <v>17.79732243997314</v>
+        <v>13.32083938392061</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>11.65347999505842</v>
+        <v>12.36167632760442</v>
       </c>
       <c r="C183">
-        <v>11.63397075666311</v>
+        <v>13.63847598423642</v>
       </c>
       <c r="D183">
-        <v>13.86835803472881</v>
+        <v>16.36374057381227</v>
       </c>
       <c r="E183">
-        <v>11.22051677398055</v>
+        <v>12.88715947160334</v>
       </c>
       <c r="F183">
-        <v>17.89642720209502</v>
+        <v>13.39782064618283</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>11.7071201653952</v>
+        <v>12.42975813640382</v>
       </c>
       <c r="C184">
-        <v>11.70621439759844</v>
+        <v>13.69139538680045</v>
       </c>
       <c r="D184">
-        <v>13.9198013088971</v>
+        <v>16.44355418412103</v>
       </c>
       <c r="E184">
-        <v>11.29006187969085</v>
+        <v>12.94618878186548</v>
       </c>
       <c r="F184">
-        <v>17.99530436107485</v>
+        <v>13.47468879157285</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>11.7606147580997</v>
+        <v>12.4977388075386</v>
       </c>
       <c r="C185">
-        <v>11.77842693778827</v>
+        <v>13.7440793981077</v>
       </c>
       <c r="D185">
-        <v>13.97087773572877</v>
+        <v>16.52311062463943</v>
       </c>
       <c r="E185">
-        <v>11.35958905432637</v>
+        <v>13.00503728118512</v>
       </c>
       <c r="F185">
-        <v>18.09395503553662</v>
+        <v>13.55144457669155</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>11.81396591396691</v>
+        <v>12.56561930642938</v>
       </c>
       <c r="C186">
-        <v>11.8506085233046</v>
+        <v>13.79653162554044</v>
       </c>
       <c r="D186">
-        <v>14.02158980761334</v>
+        <v>16.60241226080713</v>
       </c>
       <c r="E186">
-        <v>11.42909842048593</v>
+        <v>13.06370686034582</v>
       </c>
       <c r="F186">
-        <v>18.19238034402078</v>
+        <v>13.62808875681536</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>11.86717575621268</v>
+        <v>12.63340059479483</v>
       </c>
       <c r="C187">
-        <v>11.92275930048452</v>
+        <v>13.84875563816067</v>
       </c>
       <c r="D187">
-        <v>14.07194000202267</v>
+        <v>16.68146144428146</v>
       </c>
       <c r="E187">
-        <v>11.49859010066131</v>
+        <v>13.12219939833954</v>
       </c>
       <c r="F187">
-        <v>18.29058140487262</v>
+        <v>13.70462208654</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>11.92024639073072</v>
+        <v>12.70108363051985</v>
       </c>
       <c r="C188">
-        <v>11.9948794157913</v>
+        <v>13.90075496694131</v>
       </c>
       <c r="D188">
-        <v>14.1219307801771</v>
+        <v>16.76026051127681</v>
       </c>
       <c r="E188">
-        <v>11.56806421721515</v>
+        <v>13.18051676250139</v>
       </c>
       <c r="F188">
-        <v>18.38855933638267</v>
+        <v>13.7810453184315</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>11.97317990618566</v>
+        <v>12.76866936766048</v>
       </c>
       <c r="C189">
-        <v>12.06696901590857</v>
+        <v>13.95253310547979</v>
       </c>
       <c r="D189">
-        <v>14.1715645885645</v>
+        <v>16.83881178546842</v>
       </c>
       <c r="E189">
-        <v>11.63752089235748</v>
+        <v>13.23866080923241</v>
       </c>
       <c r="F189">
-        <v>18.48631525575842</v>
+        <v>13.85735920326274</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>12.02597837429543</v>
+        <v>12.83615875654623</v>
       </c>
       <c r="C190">
-        <v>12.13902824762466</v>
+        <v>14.00409351038042</v>
       </c>
       <c r="D190">
-        <v>14.2208438579097</v>
+        <v>16.91711757886247</v>
       </c>
       <c r="E190">
-        <v>11.70696024817469</v>
+        <v>13.29663338284735</v>
       </c>
       <c r="F190">
-        <v>18.58385027985226</v>
+        <v>13.93356449059991</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>12.07864385000497</v>
+        <v>12.90355274346896</v>
       </c>
       <c r="C191">
-        <v>12.21105725783656</v>
+        <v>14.0554396016443</v>
       </c>
       <c r="D191">
-        <v>14.26977100252846</v>
+        <v>16.99518018707091</v>
       </c>
       <c r="E191">
-        <v>11.77638240658093</v>
+        <v>13.35443631631471</v>
       </c>
       <c r="F191">
-        <v>18.68116552404815</v>
+        <v>14.0096619291285</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>12.13117837166143</v>
+        <v>12.97085227083272</v>
       </c>
       <c r="C192">
-        <v>12.28305619356705</v>
+        <v>14.10657476330907</v>
       </c>
       <c r="D192">
-        <v>14.31834842181642</v>
+        <v>17.073001892769</v>
       </c>
       <c r="E192">
-        <v>11.84578748934215</v>
+        <v>13.41207143133336</v>
       </c>
       <c r="F192">
-        <v>18.77826210280659</v>
+        <v>14.08565226442687</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>12.18358396124335</v>
+        <v>13.03805827755381</v>
       </c>
       <c r="C193">
-        <v>12.35502520185771</v>
+        <v>14.15750234379195</v>
       </c>
       <c r="D193">
-        <v>14.36657849866544</v>
+        <v>17.1505849665168</v>
       </c>
       <c r="E193">
-        <v>11.91517561806406</v>
+        <v>13.46954053769798</v>
       </c>
       <c r="F193">
-        <v>18.87514112929895</v>
+        <v>14.16153624059437</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>12.23586262453895</v>
+        <v>13.1051716983816</v>
       </c>
       <c r="C194">
-        <v>12.42696442983686</v>
+        <v>14.20822565636564</v>
       </c>
       <c r="D194">
-        <v>14.41446359963711</v>
+        <v>17.22793166366289</v>
       </c>
       <c r="E194">
-        <v>11.98454691417179</v>
+        <v>13.52684543395176</v>
       </c>
       <c r="F194">
-        <v>18.97180371441677</v>
+        <v>14.23731460109175</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>12.28801635134416</v>
+        <v>13.1721934640394</v>
       </c>
       <c r="C195">
-        <v>12.49887402463961</v>
+        <v>14.25874797965841</v>
       </c>
       <c r="D195">
-        <v>14.46200607625221</v>
+        <v>17.30504422621485</v>
       </c>
       <c r="E195">
-        <v>12.05390149893336</v>
+        <v>13.5839879071904</v>
       </c>
       <c r="F195">
-        <v>19.06825096710617</v>
+        <v>14.3129880862981</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>12.34004711564906</v>
+        <v>13.23912450147163</v>
       </c>
       <c r="C196">
-        <v>12.57075413341249</v>
+        <v>14.30907255811521</v>
       </c>
       <c r="D196">
-        <v>14.50920826294456</v>
+        <v>17.3819248828664</v>
       </c>
       <c r="E196">
-        <v>12.1232394934236</v>
+        <v>13.64096973282955</v>
       </c>
       <c r="F196">
-        <v>19.16448399607119</v>
+        <v>14.38855743486084</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>12.39195687585931</v>
+        <v>13.30596573435857</v>
       </c>
       <c r="C197">
-        <v>12.64260490334538</v>
+        <v>14.35920260245498</v>
       </c>
       <c r="D197">
-        <v>14.55607247811412</v>
+        <v>17.45857584866241</v>
       </c>
       <c r="E197">
-        <v>12.19256101854679</v>
+        <v>13.69779267520064</v>
       </c>
       <c r="F197">
-        <v>19.26050390607172</v>
+        <v>14.46402338373425</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>12.44374757494106</v>
+        <v>13.37271808169723</v>
       </c>
       <c r="C198">
-        <v>12.71442648152275</v>
+        <v>14.40914129001547</v>
       </c>
       <c r="D198">
-        <v>14.60260102465441</v>
+        <v>17.53499932464375</v>
       </c>
       <c r="E198">
-        <v>12.26186619502634</v>
+        <v>13.7544584870387</v>
       </c>
       <c r="F198">
-        <v>19.35631179941972</v>
+        <v>14.53938666804633</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>12.49542114065541</v>
+        <v>13.43938245883096</v>
       </c>
       <c r="C199">
-        <v>12.7862190149827</v>
+        <v>14.45889176542433</v>
       </c>
       <c r="D199">
-        <v>14.64879618846348</v>
+        <v>17.61119749850101</v>
       </c>
       <c r="E199">
-        <v>12.33115514337544</v>
+        <v>13.81096890973713</v>
       </c>
       <c r="F199">
-        <v>19.45190877637002</v>
+        <v>14.61464802041102</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>12.54697948573722</v>
+        <v>13.50595977755819</v>
       </c>
       <c r="C200">
-        <v>12.85798265078082</v>
+        <v>14.50845714089395</v>
       </c>
       <c r="D200">
-        <v>14.69466023942391</v>
+        <v>17.68717254505697</v>
       </c>
       <c r="E200">
-        <v>12.40042798391089</v>
+        <v>13.86732567365445</v>
       </c>
       <c r="F200">
-        <v>19.54729593741042</v>
+        <v>14.68980817149798</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>12.59842450804455</v>
+        <v>13.57245094585</v>
       </c>
       <c r="C201">
-        <v>12.92971753592585</v>
+        <v>14.55784049657043</v>
       </c>
       <c r="D201">
-        <v>14.74019543161336</v>
+        <v>17.76292662470505</v>
       </c>
       <c r="E201">
-        <v>12.46968483679711</v>
+        <v>13.92353049765376</v>
       </c>
       <c r="F201">
-        <v>19.64247437660306</v>
+        <v>14.76486785012363</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>12.6497580908187</v>
+        <v>13.63885686752621</v>
       </c>
       <c r="C202">
-        <v>13.00142381718327</v>
+        <v>14.60704488127146</v>
       </c>
       <c r="D202">
-        <v>14.78540400231147</v>
+        <v>17.83846188459762</v>
       </c>
       <c r="E202">
-        <v>12.53892582197313</v>
+        <v>13.97958508952548</v>
       </c>
       <c r="F202">
-        <v>19.73744518627345</v>
+        <v>14.83982778260758</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>12.70098210280359</v>
+        <v>13.70517844271061</v>
       </c>
       <c r="C203">
-        <v>13.07310164123937</v>
+        <v>14.65607331268292</v>
       </c>
       <c r="D203">
-        <v>14.83028817280375</v>
+        <v>17.91378045931831</v>
       </c>
       <c r="E203">
-        <v>12.60815105914672</v>
+        <v>14.03549114604283</v>
       </c>
       <c r="F203">
-        <v>19.83220945703788</v>
+        <v>14.91468869313915</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>12.75209839845242</v>
+        <v>13.77141656806308</v>
       </c>
       <c r="C204">
-        <v>13.14475115490122</v>
+        <v>14.7049287777734</v>
       </c>
       <c r="D204">
-        <v>14.87485014842428</v>
+        <v>17.9888844693366</v>
       </c>
       <c r="E204">
-        <v>12.6773606678229</v>
+        <v>14.09125035275106</v>
       </c>
       <c r="F204">
-        <v>19.92676827701103</v>
+        <v>14.98945130393775</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>12.8031088181447</v>
+        <v>13.83757213609815</v>
       </c>
       <c r="C205">
-        <v>13.21637250471451</v>
+        <v>14.75361423347626</v>
       </c>
       <c r="D205">
-        <v>14.91909211790784</v>
+        <v>18.06377602196034</v>
       </c>
       <c r="E205">
-        <v>12.74655476739135</v>
+        <v>14.14686438432763</v>
       </c>
       <c r="F205">
-        <v>20.02112272960745</v>
+        <v>15.06411633497957</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>12.85401518827723</v>
+        <v>13.9036460356716</v>
       </c>
       <c r="C206">
-        <v>13.28796583699585</v>
+        <v>14.80213260685123</v>
       </c>
       <c r="D206">
-        <v>14.96301625409587</v>
+        <v>18.13845721167484</v>
       </c>
       <c r="E206">
-        <v>12.81573347694027</v>
+        <v>14.20233490450676</v>
       </c>
       <c r="F206">
-        <v>20.11527389572939</v>
+        <v>15.13868450374403</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>12.90481932155782</v>
+        <v>13.96963915194359</v>
       </c>
       <c r="C207">
-        <v>13.35953129795368</v>
+        <v>14.8504867955728</v>
       </c>
       <c r="D207">
-        <v>15.00662471382712</v>
+        <v>18.21293011992635</v>
       </c>
       <c r="E207">
-        <v>12.88489691535491</v>
+        <v>14.2576635660808</v>
       </c>
       <c r="F207">
-        <v>20.2092228543891</v>
+        <v>15.21315652555743</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>12.95552301710523</v>
+        <v>14.03555236642302</v>
       </c>
       <c r="C208">
-        <v>13.43106903391773</v>
+        <v>14.89867966853105</v>
       </c>
       <c r="D208">
-        <v>15.04991963756692</v>
+        <v>18.28719681472441</v>
       </c>
       <c r="E208">
-        <v>12.95404520131271</v>
+        <v>14.31285201131563</v>
       </c>
       <c r="F208">
-        <v>20.30297068028497</v>
+        <v>15.28753311378382</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>13.00612806061504</v>
+        <v>14.10138655676415</v>
       </c>
       <c r="C209">
-        <v>13.50257919077488</v>
+        <v>14.94671406594633</v>
       </c>
       <c r="D209">
-        <v>15.0929031500418</v>
+        <v>18.3612593513081</v>
       </c>
       <c r="E209">
-        <v>13.02317845336029</v>
+        <v>14.36790187149326</v>
       </c>
       <c r="F209">
-        <v>20.39651844488676</v>
+        <v>15.36181497909035</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>13.05663622461825</v>
+        <v>14.16714259697038</v>
       </c>
       <c r="C210">
-        <v>13.5740619143117</v>
+        <v>14.99459279997341</v>
       </c>
       <c r="D210">
-        <v>15.13557735997836</v>
+        <v>18.43511977232913</v>
       </c>
       <c r="E210">
-        <v>13.09229678973004</v>
+        <v>14.42281476725744</v>
       </c>
       <c r="F210">
-        <v>20.48986721644601</v>
+        <v>15.4360028299376</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>13.10704926854355</v>
+        <v>14.23282135742732</v>
       </c>
       <c r="C211">
-        <v>13.64551735015814</v>
+        <v>15.04231865517981</v>
       </c>
       <c r="D211">
-        <v>15.177944360011</v>
+        <v>18.50878010725441</v>
       </c>
       <c r="E211">
-        <v>13.16140032846855</v>
+        <v>14.47759230861294</v>
       </c>
       <c r="F211">
-        <v>20.5830180601511</v>
+        <v>15.51009737271733</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>13.15736893896995</v>
+        <v>14.29842370481055</v>
       </c>
       <c r="C212">
-        <v>13.71694564388748</v>
+        <v>15.08989438860825</v>
       </c>
       <c r="D212">
-        <v>15.22000622720886</v>
+        <v>18.58224237292207</v>
       </c>
       <c r="E212">
-        <v>13.23048918741136</v>
+        <v>14.53223609567782</v>
       </c>
       <c r="F212">
-        <v>20.67597203717507</v>
+        <v>15.58409931137789</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>13.20759696978148</v>
+        <v>14.36395050214372</v>
       </c>
       <c r="C213">
-        <v>13.78834694073404</v>
+        <v>15.13732273055408</v>
       </c>
       <c r="D213">
-        <v>15.26176502270469</v>
+        <v>18.65550857377939</v>
       </c>
       <c r="E213">
-        <v>13.29956348420666</v>
+        <v>14.58674771754588</v>
       </c>
       <c r="F213">
-        <v>20.76873020524273</v>
+        <v>15.65800934745109</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>13.25773508226308</v>
+        <v>14.42940260886234</v>
       </c>
       <c r="C214">
-        <v>13.85972138578727</v>
+        <v>15.18460638483791</v>
       </c>
       <c r="D214">
-        <v>15.30322279184917</v>
+        <v>18.72858070149027</v>
       </c>
       <c r="E214">
-        <v>13.36862333624153</v>
+        <v>14.64112875294623</v>
       </c>
       <c r="F214">
-        <v>20.86129361903723</v>
+        <v>15.73182818022037</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>13.30778498538761</v>
+        <v>14.49478088095246</v>
       </c>
       <c r="C215">
-        <v>13.93106912394861</v>
+        <v>15.23174802861456</v>
       </c>
       <c r="D215">
-        <v>15.34438156486429</v>
+        <v>18.80146073525856</v>
       </c>
       <c r="E215">
-        <v>13.43766886069738</v>
+        <v>14.69538077033711</v>
       </c>
       <c r="F215">
-        <v>20.95366332985866</v>
+        <v>15.80555650675809</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>13.35774837587929</v>
+        <v>14.5600861706418</v>
       </c>
       <c r="C216">
-        <v>14.00239029993855</v>
+        <v>15.278750313905</v>
       </c>
       <c r="D216">
-        <v>15.38524335585855</v>
+        <v>18.87415064201714</v>
       </c>
       <c r="E216">
-        <v>13.50670017454399</v>
+        <v>14.74950532863392</v>
       </c>
       <c r="F216">
-        <v>21.0458403845707</v>
+        <v>15.87919502161397</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>13.40762693840469</v>
+        <v>14.62531932666686</v>
       </c>
       <c r="C217">
-        <v>14.07368505821779</v>
+        <v>15.32561586729391</v>
       </c>
       <c r="D217">
-        <v>15.42581016350415</v>
+        <v>18.94665237643912</v>
       </c>
       <c r="E217">
-        <v>13.57571739454007</v>
+        <v>14.80350397621562</v>
       </c>
       <c r="F217">
-        <v>21.13782582662848</v>
+        <v>15.95274441703892</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>13.45742234578199</v>
+        <v>14.69048119429543</v>
       </c>
       <c r="C218">
-        <v>14.14495354303976</v>
+        <v>15.3723472905125</v>
       </c>
       <c r="D218">
-        <v>15.46608397094879</v>
+        <v>19.01896788084637</v>
       </c>
       <c r="E218">
-        <v>13.644720637204</v>
+        <v>14.85737825122124</v>
       </c>
       <c r="F218">
-        <v>21.2296206964467</v>
+        <v>16.02620538308522</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>13.5071362590024</v>
+        <v>14.75557261528622</v>
       </c>
       <c r="C219">
-        <v>14.21619589849154</v>
+        <v>15.41894715971181</v>
       </c>
       <c r="D219">
-        <v>15.50606674665126</v>
+        <v>19.09109908551579</v>
       </c>
       <c r="E219">
-        <v>13.71371001883926</v>
+        <v>14.91112968196226</v>
       </c>
       <c r="F219">
-        <v>21.32122603014614</v>
+        <v>16.09957860733222</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>13.55677032755792</v>
+        <v>14.82059442787606</v>
       </c>
       <c r="C220">
-        <v>14.28741226844133</v>
+        <v>15.46541802752242</v>
       </c>
       <c r="D220">
-        <v>15.54576044345996</v>
+        <v>19.163047908884</v>
       </c>
       <c r="E220">
-        <v>13.7826856555339</v>
+        <v>14.96475978729489</v>
       </c>
       <c r="F220">
-        <v>21.4126428601059</v>
+        <v>16.17286477501201</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>13.60632618948891</v>
+        <v>14.88554746686707</v>
       </c>
       <c r="C221">
-        <v>14.35860279646496</v>
+        <v>15.51176242313942</v>
       </c>
       <c r="D221">
-        <v>15.58516699851999</v>
+        <v>19.23481625723929</v>
       </c>
       <c r="E221">
-        <v>13.8516476631525</v>
+        <v>15.01827007621854</v>
       </c>
       <c r="F221">
-        <v>21.50387221508159</v>
+        <v>16.24606456906329</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>13.65580547153449</v>
+        <v>14.95043256371823</v>
       </c>
       <c r="C222">
-        <v>14.42976762592819</v>
+        <v>15.55798285216953</v>
       </c>
       <c r="D222">
-        <v>15.62428833398648</v>
+        <v>19.3064060250961</v>
       </c>
       <c r="E222">
-        <v>13.92059615733037</v>
+        <v>15.07166204774309</v>
       </c>
       <c r="F222">
-        <v>21.59491512074908</v>
+        <v>16.31917867013656</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>13.70520978936332</v>
+        <v>15.01525054639224</v>
       </c>
       <c r="C223">
-        <v>14.50090690001882</v>
+        <v>15.60408179613683</v>
       </c>
       <c r="D223">
-        <v>15.66312635750461</v>
+        <v>19.3778190953664</v>
       </c>
       <c r="E223">
-        <v>13.98953125348129</v>
+        <v>15.12493719143496</v>
       </c>
       <c r="F223">
-        <v>21.68577259813976</v>
+        <v>16.39220775642925</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>13.75454074762522</v>
+        <v>15.08000223950184</v>
       </c>
       <c r="C224">
-        <v>14.57202076164592</v>
+        <v>15.65006171299775</v>
       </c>
       <c r="D224">
-        <v>15.70168296282506</v>
+        <v>19.44905733921367</v>
       </c>
       <c r="E224">
-        <v>14.05845306681815</v>
+        <v>15.17809698746369</v>
       </c>
       <c r="F224">
-        <v>21.77644566476133</v>
+        <v>16.4651525038259</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>13.80379994016972</v>
+        <v>15.14468846430803</v>
       </c>
       <c r="C225">
-        <v>14.64310935346535</v>
+        <v>15.69592504036527</v>
       </c>
       <c r="D225">
-        <v>15.73996002692817</v>
+        <v>19.52012261625824</v>
       </c>
       <c r="E225">
-        <v>14.12736171231568</v>
+        <v>15.23114290662183</v>
       </c>
       <c r="F225">
-        <v>21.86693533445434</v>
+        <v>16.53801358603033</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>13.85298895018452</v>
+        <v>15.20931003874391</v>
       </c>
       <c r="C226">
-        <v>14.71417281789457</v>
+        <v>15.7416741929853</v>
       </c>
       <c r="D226">
-        <v>15.77795941273757</v>
+        <v>19.59101677471532</v>
       </c>
       <c r="E226">
-        <v>14.19625730472361</v>
+        <v>15.28407641021402</v>
       </c>
       <c r="F226">
-        <v>21.95724261730306</v>
+        <v>16.61079167425189</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>13.90210935026242</v>
+        <v>15.27386777742511</v>
       </c>
       <c r="C227">
-        <v>14.78521129719199</v>
+        <v>15.78731156363491</v>
       </c>
       <c r="D227">
-        <v>15.81568296850712</v>
+        <v>19.66174165146665</v>
       </c>
       <c r="E227">
-        <v>14.26513995857201</v>
+        <v>15.33689895036715</v>
       </c>
       <c r="F227">
-        <v>22.04736851933804</v>
+        <v>16.68348743741966</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>13.95116270267378</v>
+        <v>15.3383624916851</v>
       </c>
       <c r="C228">
-        <v>14.85622493327292</v>
+        <v>15.83283952157998</v>
       </c>
       <c r="D228">
-        <v>15.85313252939838</v>
+        <v>19.73229907208638</v>
       </c>
       <c r="E228">
-        <v>14.33400978818588</v>
+        <v>15.38961197007647</v>
       </c>
       <c r="F228">
-        <v>22.13731404281296</v>
+        <v>16.75610154219223</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>14.00015055939861</v>
+        <v>15.40279498962859</v>
       </c>
       <c r="C229">
-        <v>14.92721386783288</v>
+        <v>15.87826041770559</v>
       </c>
       <c r="D229">
-        <v>15.89030991438085</v>
+        <v>19.80269085100852</v>
       </c>
       <c r="E229">
-        <v>14.40286690765015</v>
+        <v>15.44221690330037</v>
       </c>
       <c r="F229">
-        <v>22.22708018649204</v>
+        <v>16.82863465293214</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>14.04907446229267</v>
+        <v>15.46716607610181</v>
       </c>
       <c r="C230">
-        <v>14.99817824231929</v>
+        <v>15.92357658114685</v>
       </c>
       <c r="D230">
-        <v>15.9272169286828</v>
+        <v>19.87291879163083</v>
       </c>
       <c r="E230">
-        <v>14.47171143083376</v>
+        <v>15.49471517494816</v>
       </c>
       <c r="F230">
-        <v>22.31666794500158</v>
+        <v>16.90108743163414</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>14.09793594328461</v>
+        <v>15.53147655274311</v>
       </c>
       <c r="C231">
-        <v>15.06911819795379</v>
+        <v>15.96879032060906</v>
       </c>
       <c r="D231">
-        <v>15.96385536328079</v>
+        <v>19.94298468634733</v>
       </c>
       <c r="E231">
-        <v>14.54054347138586</v>
+        <v>15.54710820105633</v>
       </c>
       <c r="F231">
-        <v>22.40607830912229</v>
+        <v>16.9734605380214</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>14.14673652441626</v>
+        <v>15.59572721801062</v>
       </c>
       <c r="C232">
-        <v>15.14003387566629</v>
+        <v>16.01390392303291</v>
       </c>
       <c r="D232">
-        <v>16.00022699535361</v>
+        <v>20.01289031668798</v>
       </c>
       <c r="E232">
-        <v>14.60936314274721</v>
+        <v>15.59939738881226</v>
       </c>
       <c r="F232">
-        <v>22.49531226584126</v>
+        <v>17.045754629602</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>14.19547771804488</v>
+        <v>15.6599188672103</v>
       </c>
       <c r="C233">
-        <v>15.21092541614047</v>
+        <v>16.0589196569766</v>
       </c>
       <c r="D233">
-        <v>16.03633358785309</v>
+        <v>20.08263745341899</v>
       </c>
       <c r="E233">
-        <v>14.67817055812353</v>
+        <v>15.65158413657315</v>
       </c>
       <c r="F233">
-        <v>22.58437079851981</v>
+        <v>17.11797036151738</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>14.24416102694456</v>
+        <v>15.72405229250175</v>
       </c>
       <c r="C234">
-        <v>15.281792959813</v>
+        <v>16.10383977124255</v>
       </c>
       <c r="D234">
-        <v>16.07217688968615</v>
+        <v>20.15222785661427</v>
       </c>
       <c r="E234">
-        <v>14.74696583050573</v>
+        <v>15.70366983417611</v>
       </c>
       <c r="F234">
-        <v>22.67325488638107</v>
+        <v>17.19010838665909</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>14.29278794445055</v>
+        <v>15.78812828293682</v>
       </c>
       <c r="C235">
-        <v>15.35263664687673</v>
+        <v>16.14866649525165</v>
       </c>
       <c r="D235">
-        <v>16.10775863600932</v>
+        <v>20.22166327576081</v>
       </c>
       <c r="E235">
-        <v>14.8157490726662</v>
+        <v>15.75565586283349</v>
       </c>
       <c r="F235">
-        <v>22.76196550487875</v>
+        <v>17.2621693556878</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>14.34135995458938</v>
+        <v>15.85214762449011</v>
       </c>
       <c r="C236">
-        <v>15.42345661723384</v>
+        <v>16.19340203889783</v>
       </c>
       <c r="D236">
-        <v>16.14308054816871</v>
+        <v>20.29094544985672</v>
       </c>
       <c r="E236">
-        <v>14.88452039716042</v>
+        <v>15.80754359527946</v>
       </c>
       <c r="F236">
-        <v>22.85050362576651</v>
+        <v>17.33415391699841</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>14.38987853221114</v>
+        <v>15.91611110007277</v>
       </c>
       <c r="C237">
-        <v>15.49425301053425</v>
+        <v>16.2380485934442</v>
       </c>
       <c r="D237">
-        <v>16.17814433377917</v>
+        <v>20.36007610750483</v>
       </c>
       <c r="E237">
-        <v>14.95327991632159</v>
+        <v>15.85933439591759</v>
       </c>
       <c r="F237">
-        <v>22.93887021703631</v>
+        <v>17.40606271671771</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>14.4383451431048</v>
+        <v>15.98001948955505</v>
       </c>
       <c r="C238">
-        <v>15.56502596617926</v>
+        <v>16.28260833236285</v>
       </c>
       <c r="D238">
-        <v>16.21295168704195</v>
+        <v>20.42905696700664</v>
       </c>
       <c r="E238">
-        <v>15.02202774226562</v>
+        <v>15.91102962074485</v>
       </c>
       <c r="F238">
-        <v>23.02706624263248</v>
+        <v>17.47789639876036</v>
       </c>
     </row>
   </sheetData>
